--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="1791">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7158,27 +7158,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"80万金币","2.4万金币"，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币"，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币"，"0.8万",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","11万金币"，</t>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币"，</t>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币"，"3.8万",</t>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7237,44 +7216,6 @@
     <t>聚划算2498元-2(10min)</t>
   </si>
   <si>
-    <t>"980万金币","29万金币"，</t>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币"，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币"，"9.8万",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","59万金币"，</t>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币"，</t>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币"，"19.8万",</t>
-  </si>
-  <si>
-    <t>"9980万金币","299万金币"，</t>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币"，</t>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币"，"99.8万",</t>
-  </si>
-  <si>
-    <t>"24980万金币","749万金币"，</t>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币"，</t>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币"，"249.8万",</t>
-  </si>
-  <si>
     <t>聚划算38元1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7359,18 +7300,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"4980万金币","149万金币"，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币"，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币"，"49.8万",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_hammer_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7567,10 +7496,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"4980万金币","金锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_silver_hammer_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7607,6 +7532,186 @@
   </si>
   <si>
     <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.4亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7678,7 +7783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7751,6 +7856,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7794,7 +7911,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7979,6 +8096,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10420,11 +10549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N452" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P476" sqref="P476"/>
+      <selection pane="bottomRight" activeCell="I480" sqref="I480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37857,7 +37986,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>1561</v>
@@ -38321,7 +38450,7 @@
         <v>1579</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1632</v>
+        <v>1762</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38728,13 +38857,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1695</v>
+        <v>1677</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1640</v>
+        <v>1790</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38752,10 +38881,10 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="V447" s="54" t="s">
         <v>1639</v>
@@ -38793,13 +38922,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1696</v>
+        <v>1678</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1641</v>
+        <v>1770</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38817,10 +38946,10 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="V448" s="54" t="s">
         <v>1639</v>
@@ -38858,13 +38987,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1697</v>
+        <v>1679</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1642</v>
+        <v>1771</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -38882,10 +39011,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="V449" s="54" t="s">
         <v>1638</v>
@@ -38926,13 +39055,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="54" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="H450" s="54" t="s">
-        <v>1677</v>
+        <v>1659</v>
       </c>
       <c r="I450" s="54" t="s">
-        <v>1643</v>
+        <v>1772</v>
       </c>
       <c r="K450" s="54">
         <v>-31</v>
@@ -38950,10 +39079,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q450" s="55" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="V450" s="54" t="s">
         <v>1638</v>
@@ -38991,13 +39120,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="H451" s="54" t="s">
-        <v>1678</v>
+        <v>1660</v>
       </c>
       <c r="I451" s="54" t="s">
-        <v>1644</v>
+        <v>1773</v>
       </c>
       <c r="K451" s="54">
         <v>-31</v>
@@ -39015,10 +39144,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q451" s="55" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="V451" s="54" t="s">
         <v>1638</v>
@@ -39056,13 +39185,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="54" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="H452" s="54" t="s">
-        <v>1679</v>
+        <v>1661</v>
       </c>
       <c r="I452" s="54" t="s">
-        <v>1645</v>
+        <v>1774</v>
       </c>
       <c r="K452" s="54">
         <v>-31</v>
@@ -39080,10 +39209,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q452" s="55" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="V452" s="54" t="s">
         <v>1638</v>
@@ -39127,10 +39256,10 @@
         <v>1635</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1680</v>
+        <v>1662</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1665</v>
+        <v>1775</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39148,10 +39277,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="V453" s="54" t="s">
         <v>1638</v>
@@ -39192,10 +39321,10 @@
         <v>1636</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1681</v>
+        <v>1663</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1666</v>
+        <v>1776</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39213,10 +39342,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="V454" s="54" t="s">
         <v>1638</v>
@@ -39257,10 +39386,10 @@
         <v>1637</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1667</v>
+        <v>1777</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39278,10 +39407,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="V455" s="54" t="s">
         <v>1638</v>
@@ -39322,13 +39451,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="54" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="H456" s="54" t="s">
-        <v>1683</v>
+        <v>1665</v>
       </c>
       <c r="I456" s="54" t="s">
-        <v>1668</v>
+        <v>1778</v>
       </c>
       <c r="K456" s="54">
         <v>-31</v>
@@ -39346,10 +39475,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q456" s="55" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="V456" s="54" t="s">
         <v>1638</v>
@@ -39387,13 +39516,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="54" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="H457" s="54" t="s">
-        <v>1684</v>
+        <v>1666</v>
       </c>
       <c r="I457" s="54" t="s">
-        <v>1669</v>
+        <v>1779</v>
       </c>
       <c r="K457" s="54">
         <v>-31</v>
@@ -39411,10 +39540,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q457" s="55" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="V457" s="54" t="s">
         <v>1638</v>
@@ -39452,13 +39581,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="54" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="H458" s="54" t="s">
-        <v>1685</v>
+        <v>1667</v>
       </c>
       <c r="I458" s="54" t="s">
-        <v>1670</v>
+        <v>1780</v>
       </c>
       <c r="K458" s="54">
         <v>-31</v>
@@ -39476,10 +39605,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q458" s="55" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="V458" s="54" t="s">
         <v>1638</v>
@@ -39520,13 +39649,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1686</v>
+        <v>1668</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1698</v>
+        <v>1781</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39544,10 +39673,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="V459" s="54" t="s">
         <v>1638</v>
@@ -39585,13 +39714,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1687</v>
+        <v>1669</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1699</v>
+        <v>1782</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39609,10 +39738,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="V460" s="54" t="s">
         <v>1638</v>
@@ -39650,13 +39779,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1688</v>
+        <v>1670</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1700</v>
+        <v>1783</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39674,10 +39803,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="V461" s="54" t="s">
         <v>1638</v>
@@ -39718,13 +39847,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="54" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="H462" s="54" t="s">
-        <v>1689</v>
+        <v>1671</v>
       </c>
       <c r="I462" s="54" t="s">
-        <v>1671</v>
+        <v>1784</v>
       </c>
       <c r="K462" s="54">
         <v>-31</v>
@@ -39742,10 +39871,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q462" s="55" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="V462" s="54" t="s">
         <v>1638</v>
@@ -39783,13 +39912,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="54" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="H463" s="54" t="s">
-        <v>1690</v>
+        <v>1672</v>
       </c>
       <c r="I463" s="54" t="s">
-        <v>1672</v>
+        <v>1785</v>
       </c>
       <c r="K463" s="54">
         <v>-31</v>
@@ -39807,10 +39936,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q463" s="55" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="V463" s="54" t="s">
         <v>1638</v>
@@ -39848,13 +39977,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="54" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="H464" s="54" t="s">
-        <v>1691</v>
+        <v>1673</v>
       </c>
       <c r="I464" s="54" t="s">
-        <v>1673</v>
+        <v>1786</v>
       </c>
       <c r="K464" s="54">
         <v>-31</v>
@@ -39872,10 +40001,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q464" s="55" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="V464" s="54" t="s">
         <v>1638</v>
@@ -39916,13 +40045,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1692</v>
+        <v>1674</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1674</v>
+        <v>1787</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -39940,10 +40069,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="V465" s="54" t="s">
         <v>1638</v>
@@ -39981,13 +40110,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1693</v>
+        <v>1675</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1675</v>
+        <v>1788</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40005,10 +40134,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="V466" s="54" t="s">
         <v>1638</v>
@@ -40046,13 +40175,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1694</v>
+        <v>1676</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1676</v>
+        <v>1789</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40070,10 +40199,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Q467" s="55" t="s">
         <v>1702</v>
-      </c>
-      <c r="Q467" s="55" t="s">
-        <v>1723</v>
       </c>
       <c r="V467" s="54" t="s">
         <v>1638</v>
@@ -40114,13 +40243,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="H468" s="58" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="I468" s="58" t="s">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="K468" s="58">
         <v>-31</v>
@@ -40141,10 +40270,10 @@
         <v>1403</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1757</v>
+        <v>1735</v>
       </c>
       <c r="V468" s="58" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W468" s="58">
         <v>9999999</v>
@@ -40179,13 +40308,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1739</v>
+        <v>1718</v>
       </c>
       <c r="H469" s="58" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1737</v>
+        <v>1716</v>
       </c>
       <c r="K469" s="58">
         <v>-31</v>
@@ -40203,13 +40332,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="54" t="s">
-        <v>1751</v>
+        <v>1729</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1756</v>
+        <v>1734</v>
       </c>
       <c r="V469" s="58" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W469" s="58">
         <v>9999999</v>
@@ -40244,13 +40373,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
-        <v>1740</v>
+        <v>1719</v>
       </c>
       <c r="H470" s="58" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="I470" s="58" t="s">
-        <v>1738</v>
+        <v>1717</v>
       </c>
       <c r="K470" s="58">
         <v>-31</v>
@@ -40271,10 +40400,10 @@
         <v>1403</v>
       </c>
       <c r="Q470" s="59" t="s">
-        <v>1758</v>
+        <v>1736</v>
       </c>
       <c r="V470" s="58" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W470" s="58">
         <v>9999999</v>
@@ -40309,13 +40438,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="60" t="s">
-        <v>1741</v>
+        <v>1720</v>
       </c>
       <c r="H471" s="60" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="I471" s="60" t="s">
-        <v>1736</v>
+        <v>1715</v>
       </c>
       <c r="K471" s="60">
         <v>-31</v>
@@ -40333,13 +40462,13 @@
         <v>4800</v>
       </c>
       <c r="P471" s="60" t="s">
-        <v>1752</v>
+        <v>1730</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1758</v>
+        <v>1736</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40374,13 +40503,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="60" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="H472" s="60" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="I472" s="60" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="K472" s="60">
         <v>-31</v>
@@ -40398,13 +40527,13 @@
         <v>9800</v>
       </c>
       <c r="P472" s="60" t="s">
-        <v>1753</v>
+        <v>1731</v>
       </c>
       <c r="Q472" s="61" t="s">
-        <v>1759</v>
+        <v>1737</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40439,13 +40568,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="60" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="H473" s="60" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="I473" s="60" t="s">
-        <v>1747</v>
+        <v>1726</v>
       </c>
       <c r="K473" s="60">
         <v>-31</v>
@@ -40463,13 +40592,13 @@
         <v>19800</v>
       </c>
       <c r="P473" s="60" t="s">
-        <v>1752</v>
+        <v>1730</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1760</v>
+        <v>1738</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40504,13 +40633,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="58" t="s">
-        <v>1744</v>
+        <v>1723</v>
       </c>
       <c r="H474" s="58" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="I474" s="58" t="s">
-        <v>1748</v>
+        <v>1727</v>
       </c>
       <c r="K474" s="58">
         <v>-31</v>
@@ -40528,13 +40657,13 @@
         <v>9800</v>
       </c>
       <c r="P474" s="54" t="s">
-        <v>1754</v>
+        <v>1732</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1759</v>
+        <v>1737</v>
       </c>
       <c r="V474" s="58" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40569,13 +40698,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="58" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="H475" s="58" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="I475" s="58" t="s">
-        <v>1749</v>
+        <v>1728</v>
       </c>
       <c r="K475" s="58">
         <v>-31</v>
@@ -40593,13 +40722,13 @@
         <v>19800</v>
       </c>
       <c r="P475" s="54" t="s">
-        <v>1755</v>
+        <v>1733</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1760</v>
+        <v>1738</v>
       </c>
       <c r="V475" s="58" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -40634,13 +40763,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="58" t="s">
-        <v>1745</v>
+        <v>1724</v>
       </c>
       <c r="H476" s="58" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="I476" s="58" t="s">
-        <v>1750</v>
+        <v>1401</v>
       </c>
       <c r="K476" s="58">
         <v>-31</v>
@@ -40658,13 +40787,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="54" t="s">
-        <v>1754</v>
+        <v>1732</v>
       </c>
       <c r="Q476" s="59" t="s">
-        <v>1761</v>
+        <v>1739</v>
       </c>
       <c r="V476" s="58" t="s">
-        <v>1762</v>
+        <v>1740</v>
       </c>
       <c r="W476" s="58">
         <v>9999999</v>
@@ -40688,8 +40817,523 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I484" s="6">
+    <row r="477" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="64">
+        <v>476</v>
+      </c>
+      <c r="B477" s="64">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="64">
+        <v>1</v>
+      </c>
+      <c r="G477" s="64" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H477" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I477" s="64" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K477" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="64">
+        <v>0</v>
+      </c>
+      <c r="M477" s="64">
+        <v>0</v>
+      </c>
+      <c r="N477" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O477" s="64">
+        <v>600</v>
+      </c>
+      <c r="P477" s="64" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q477" s="65" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V477" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="W477" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y477" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG477" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="64">
+        <v>477</v>
+      </c>
+      <c r="B478" s="64">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="64">
+        <v>1</v>
+      </c>
+      <c r="G478" s="64" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H478" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I478" s="64" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K478" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="64">
+        <v>0</v>
+      </c>
+      <c r="M478" s="64">
+        <v>0</v>
+      </c>
+      <c r="N478" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O478" s="64">
+        <v>3000</v>
+      </c>
+      <c r="P478" s="64" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q478" s="65" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V478" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="W478" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y478" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG478" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="64">
+        <v>478</v>
+      </c>
+      <c r="B479" s="64">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="64">
+        <v>1</v>
+      </c>
+      <c r="G479" s="64" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H479" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I479" s="64" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K479" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="64">
+        <v>0</v>
+      </c>
+      <c r="M479" s="64">
+        <v>0</v>
+      </c>
+      <c r="N479" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O479" s="64">
+        <v>6800</v>
+      </c>
+      <c r="P479" s="64" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q479" s="65" t="s">
+        <v>1764</v>
+      </c>
+      <c r="V479" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="W479" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y479" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG479" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="64">
+        <v>479</v>
+      </c>
+      <c r="B480" s="64">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="64">
+        <v>1</v>
+      </c>
+      <c r="G480" s="64" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H480" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I480" s="64" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K480" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="64">
+        <v>0</v>
+      </c>
+      <c r="M480" s="64">
+        <v>0</v>
+      </c>
+      <c r="N480" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O480" s="64">
+        <v>9800</v>
+      </c>
+      <c r="P480" s="64" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q480" s="65" t="s">
+        <v>1765</v>
+      </c>
+      <c r="V480" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="W480" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y480" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG480" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="64">
+        <v>480</v>
+      </c>
+      <c r="B481" s="64">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="64">
+        <v>1</v>
+      </c>
+      <c r="G481" s="64" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H481" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I481" s="64" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K481" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="64">
+        <v>0</v>
+      </c>
+      <c r="M481" s="64">
+        <v>0</v>
+      </c>
+      <c r="N481" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O481" s="64">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="64" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q481" s="65" t="s">
+        <v>1766</v>
+      </c>
+      <c r="V481" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="W481" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y481" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG481" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="64">
+        <v>481</v>
+      </c>
+      <c r="B482" s="64">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="64">
+        <v>1</v>
+      </c>
+      <c r="G482" s="64" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H482" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I482" s="64" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K482" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="64">
+        <v>0</v>
+      </c>
+      <c r="M482" s="64">
+        <v>0</v>
+      </c>
+      <c r="N482" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O482" s="64">
+        <v>49800</v>
+      </c>
+      <c r="P482" s="64" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q482" s="65" t="s">
+        <v>1767</v>
+      </c>
+      <c r="V482" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="W482" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y482" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG482" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="62">
+        <v>482</v>
+      </c>
+      <c r="B483" s="62">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="62">
+        <v>1</v>
+      </c>
+      <c r="G483" s="62" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H483" s="62" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I483" s="62" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K483" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="62">
+        <v>0</v>
+      </c>
+      <c r="M483" s="62">
+        <v>0</v>
+      </c>
+      <c r="N483" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="O483" s="62">
+        <v>99800</v>
+      </c>
+      <c r="P483" s="62" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q483" s="63" t="s">
+        <v>1768</v>
+      </c>
+      <c r="V483" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="W483" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y483" s="62">
+        <v>2552233600</v>
+      </c>
+      <c r="AG483" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="62">
+        <v>483</v>
+      </c>
+      <c r="B484" s="62">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="62">
+        <v>1</v>
+      </c>
+      <c r="G484" s="62" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H484" s="62" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I484" s="62" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K484" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="62">
+        <v>0</v>
+      </c>
+      <c r="M484" s="62">
+        <v>0</v>
+      </c>
+      <c r="N484" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="O484" s="62">
+        <v>249800</v>
+      </c>
+      <c r="P484" s="62" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q484" s="63" t="s">
+        <v>1769</v>
+      </c>
+      <c r="V484" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="W484" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y484" s="62">
+        <v>2552233600</v>
+      </c>
+      <c r="AG484" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="62">
         <v>1</v>
       </c>
     </row>
@@ -41121,7 +41765,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41467,7 +42111,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41481,7 +42125,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41495,7 +42139,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41509,7 +42153,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41523,7 +42167,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41537,7 +42181,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41551,7 +42195,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="1789">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7308,90 +7308,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>856000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4028000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4066000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>824000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>848000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3910000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10090000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10388000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10478000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20390000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20988000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>21186000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51290000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>52788000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>53286000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>102790000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>105788000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>106786000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>257290000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>264788000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>267286000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10363,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7512,25 +7428,6 @@
     <t>"jing_bi","prop_silver_hammer_3",</t>
   </si>
   <si>
-    <t>300000,1</t>
-  </si>
-  <si>
-    <t>180000,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>480000,1</t>
-  </si>
-  <si>
-    <t>980000,1</t>
-  </si>
-  <si>
-    <t>1980000,1</t>
-  </si>
-  <si>
-    <t>4980000,1</t>
-  </si>
-  <si>
     <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7615,42 +7512,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"80万金币","4.8万金币",</t>
   </si>
   <si>
@@ -7712,6 +7577,138 @@
   </si>
   <si>
     <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10478000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4980000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10550,10 +10547,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H446" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I480" sqref="I480"/>
+      <selection pane="bottomRight" activeCell="P479" sqref="P479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -38450,7 +38447,7 @@
         <v>1579</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1762</v>
+        <v>1734</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38863,7 +38860,7 @@
         <v>1677</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1790</v>
+        <v>1755</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38884,7 +38881,7 @@
         <v>1681</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1685</v>
+        <v>1756</v>
       </c>
       <c r="V447" s="54" t="s">
         <v>1639</v>
@@ -38928,7 +38925,7 @@
         <v>1678</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1770</v>
+        <v>1735</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38949,7 +38946,7 @@
         <v>1681</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1686</v>
+        <v>1757</v>
       </c>
       <c r="V448" s="54" t="s">
         <v>1639</v>
@@ -38993,7 +38990,7 @@
         <v>1679</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1771</v>
+        <v>1736</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -39014,7 +39011,7 @@
         <v>1681</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1682</v>
+        <v>1758</v>
       </c>
       <c r="V449" s="54" t="s">
         <v>1638</v>
@@ -39061,7 +39058,7 @@
         <v>1659</v>
       </c>
       <c r="I450" s="54" t="s">
-        <v>1772</v>
+        <v>1737</v>
       </c>
       <c r="K450" s="54">
         <v>-31</v>
@@ -39082,7 +39079,7 @@
         <v>1681</v>
       </c>
       <c r="Q450" s="55" t="s">
-        <v>1687</v>
+        <v>1759</v>
       </c>
       <c r="V450" s="54" t="s">
         <v>1638</v>
@@ -39126,7 +39123,7 @@
         <v>1660</v>
       </c>
       <c r="I451" s="54" t="s">
-        <v>1773</v>
+        <v>1738</v>
       </c>
       <c r="K451" s="54">
         <v>-31</v>
@@ -39147,7 +39144,7 @@
         <v>1681</v>
       </c>
       <c r="Q451" s="55" t="s">
-        <v>1683</v>
+        <v>1760</v>
       </c>
       <c r="V451" s="54" t="s">
         <v>1638</v>
@@ -39191,7 +39188,7 @@
         <v>1661</v>
       </c>
       <c r="I452" s="54" t="s">
-        <v>1774</v>
+        <v>1739</v>
       </c>
       <c r="K452" s="54">
         <v>-31</v>
@@ -39212,7 +39209,7 @@
         <v>1681</v>
       </c>
       <c r="Q452" s="55" t="s">
-        <v>1684</v>
+        <v>1761</v>
       </c>
       <c r="V452" s="54" t="s">
         <v>1638</v>
@@ -39259,7 +39256,7 @@
         <v>1662</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1775</v>
+        <v>1740</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39280,7 +39277,7 @@
         <v>1681</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1688</v>
+        <v>1762</v>
       </c>
       <c r="V453" s="54" t="s">
         <v>1638</v>
@@ -39324,7 +39321,7 @@
         <v>1663</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1776</v>
+        <v>1741</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39345,7 +39342,7 @@
         <v>1681</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1689</v>
+        <v>1763</v>
       </c>
       <c r="V454" s="54" t="s">
         <v>1638</v>
@@ -39389,7 +39386,7 @@
         <v>1664</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1777</v>
+        <v>1742</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39410,7 +39407,7 @@
         <v>1681</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1690</v>
+        <v>1764</v>
       </c>
       <c r="V455" s="54" t="s">
         <v>1638</v>
@@ -39457,7 +39454,7 @@
         <v>1665</v>
       </c>
       <c r="I456" s="54" t="s">
-        <v>1778</v>
+        <v>1743</v>
       </c>
       <c r="K456" s="54">
         <v>-31</v>
@@ -39478,7 +39475,7 @@
         <v>1681</v>
       </c>
       <c r="Q456" s="55" t="s">
-        <v>1691</v>
+        <v>1765</v>
       </c>
       <c r="V456" s="54" t="s">
         <v>1638</v>
@@ -39522,7 +39519,7 @@
         <v>1666</v>
       </c>
       <c r="I457" s="54" t="s">
-        <v>1779</v>
+        <v>1744</v>
       </c>
       <c r="K457" s="54">
         <v>-31</v>
@@ -39543,7 +39540,7 @@
         <v>1681</v>
       </c>
       <c r="Q457" s="55" t="s">
-        <v>1692</v>
+        <v>1766</v>
       </c>
       <c r="V457" s="54" t="s">
         <v>1638</v>
@@ -39587,7 +39584,7 @@
         <v>1667</v>
       </c>
       <c r="I458" s="54" t="s">
-        <v>1780</v>
+        <v>1745</v>
       </c>
       <c r="K458" s="54">
         <v>-31</v>
@@ -39608,7 +39605,7 @@
         <v>1681</v>
       </c>
       <c r="Q458" s="55" t="s">
-        <v>1693</v>
+        <v>1767</v>
       </c>
       <c r="V458" s="54" t="s">
         <v>1638</v>
@@ -39655,7 +39652,7 @@
         <v>1668</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1781</v>
+        <v>1746</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39676,7 +39673,7 @@
         <v>1681</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1694</v>
+        <v>1768</v>
       </c>
       <c r="V459" s="54" t="s">
         <v>1638</v>
@@ -39720,7 +39717,7 @@
         <v>1669</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1782</v>
+        <v>1747</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39741,7 +39738,7 @@
         <v>1681</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1695</v>
+        <v>1769</v>
       </c>
       <c r="V460" s="54" t="s">
         <v>1638</v>
@@ -39785,7 +39782,7 @@
         <v>1670</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1783</v>
+        <v>1748</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39806,7 +39803,7 @@
         <v>1681</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1696</v>
+        <v>1770</v>
       </c>
       <c r="V461" s="54" t="s">
         <v>1638</v>
@@ -39853,7 +39850,7 @@
         <v>1671</v>
       </c>
       <c r="I462" s="54" t="s">
-        <v>1784</v>
+        <v>1749</v>
       </c>
       <c r="K462" s="54">
         <v>-31</v>
@@ -39874,7 +39871,7 @@
         <v>1681</v>
       </c>
       <c r="Q462" s="55" t="s">
-        <v>1697</v>
+        <v>1771</v>
       </c>
       <c r="V462" s="54" t="s">
         <v>1638</v>
@@ -39918,7 +39915,7 @@
         <v>1672</v>
       </c>
       <c r="I463" s="54" t="s">
-        <v>1785</v>
+        <v>1750</v>
       </c>
       <c r="K463" s="54">
         <v>-31</v>
@@ -39939,7 +39936,7 @@
         <v>1681</v>
       </c>
       <c r="Q463" s="55" t="s">
-        <v>1698</v>
+        <v>1772</v>
       </c>
       <c r="V463" s="54" t="s">
         <v>1638</v>
@@ -39983,7 +39980,7 @@
         <v>1673</v>
       </c>
       <c r="I464" s="54" t="s">
-        <v>1786</v>
+        <v>1751</v>
       </c>
       <c r="K464" s="54">
         <v>-31</v>
@@ -40004,7 +40001,7 @@
         <v>1681</v>
       </c>
       <c r="Q464" s="55" t="s">
-        <v>1699</v>
+        <v>1773</v>
       </c>
       <c r="V464" s="54" t="s">
         <v>1638</v>
@@ -40051,7 +40048,7 @@
         <v>1674</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1787</v>
+        <v>1752</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40072,7 +40069,7 @@
         <v>1681</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1700</v>
+        <v>1774</v>
       </c>
       <c r="V465" s="54" t="s">
         <v>1638</v>
@@ -40116,7 +40113,7 @@
         <v>1675</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40137,7 +40134,7 @@
         <v>1681</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1701</v>
+        <v>1775</v>
       </c>
       <c r="V466" s="54" t="s">
         <v>1638</v>
@@ -40181,7 +40178,7 @@
         <v>1676</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1789</v>
+        <v>1754</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40199,10 +40196,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1759</v>
+        <v>1732</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1702</v>
+        <v>1776</v>
       </c>
       <c r="V467" s="54" t="s">
         <v>1638</v>
@@ -40243,13 +40240,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="H468" s="58" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="I468" s="58" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="K468" s="58">
         <v>-31</v>
@@ -40270,10 +40267,10 @@
         <v>1403</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1735</v>
+        <v>1777</v>
       </c>
       <c r="V468" s="58" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W468" s="58">
         <v>9999999</v>
@@ -40308,13 +40305,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="H469" s="58" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="K469" s="58">
         <v>-31</v>
@@ -40332,13 +40329,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="54" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1734</v>
+        <v>1778</v>
       </c>
       <c r="V469" s="58" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W469" s="58">
         <v>9999999</v>
@@ -40373,13 +40370,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="H470" s="58" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="I470" s="58" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="K470" s="58">
         <v>-31</v>
@@ -40400,10 +40397,10 @@
         <v>1403</v>
       </c>
       <c r="Q470" s="59" t="s">
-        <v>1736</v>
+        <v>1779</v>
       </c>
       <c r="V470" s="58" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W470" s="58">
         <v>9999999</v>
@@ -40438,13 +40435,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="60" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="H471" s="60" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="I471" s="60" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="K471" s="60">
         <v>-31</v>
@@ -40462,13 +40459,13 @@
         <v>4800</v>
       </c>
       <c r="P471" s="60" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1736</v>
+        <v>1779</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40503,13 +40500,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="60" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="H472" s="60" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="I472" s="60" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="K472" s="60">
         <v>-31</v>
@@ -40527,13 +40524,13 @@
         <v>9800</v>
       </c>
       <c r="P472" s="60" t="s">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="Q472" s="61" t="s">
-        <v>1737</v>
+        <v>1780</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40568,13 +40565,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="60" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="H473" s="60" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="I473" s="60" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="K473" s="60">
         <v>-31</v>
@@ -40592,13 +40589,13 @@
         <v>19800</v>
       </c>
       <c r="P473" s="60" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1738</v>
+        <v>1781</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40633,13 +40630,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="58" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="H474" s="58" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="I474" s="58" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="K474" s="58">
         <v>-31</v>
@@ -40657,13 +40654,13 @@
         <v>9800</v>
       </c>
       <c r="P474" s="54" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1737</v>
+        <v>1780</v>
       </c>
       <c r="V474" s="58" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40698,13 +40695,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="58" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="H475" s="58" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="I475" s="58" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="K475" s="58">
         <v>-31</v>
@@ -40722,13 +40719,13 @@
         <v>19800</v>
       </c>
       <c r="P475" s="54" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1738</v>
+        <v>1781</v>
       </c>
       <c r="V475" s="58" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -40763,10 +40760,10 @@
         <v>1</v>
       </c>
       <c r="G476" s="58" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="H476" s="58" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="I476" s="58" t="s">
         <v>1401</v>
@@ -40787,13 +40784,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="54" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="Q476" s="59" t="s">
-        <v>1739</v>
+        <v>1782</v>
       </c>
       <c r="V476" s="58" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="W476" s="58">
         <v>9999999</v>
@@ -40828,13 +40825,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="64" t="s">
-        <v>1741</v>
+        <v>1714</v>
       </c>
       <c r="H477" s="64" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="I477" s="64" t="s">
-        <v>1751</v>
+        <v>1724</v>
       </c>
       <c r="K477" s="64">
         <v>-31</v>
@@ -40852,10 +40849,10 @@
         <v>600</v>
       </c>
       <c r="P477" s="64" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q477" s="65" t="s">
-        <v>1761</v>
+        <v>1783</v>
       </c>
       <c r="V477" s="64" t="s">
         <v>551</v>
@@ -40893,13 +40890,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="64" t="s">
-        <v>1742</v>
+        <v>1715</v>
       </c>
       <c r="H478" s="64" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="I478" s="64" t="s">
-        <v>1752</v>
+        <v>1725</v>
       </c>
       <c r="K478" s="64">
         <v>-31</v>
@@ -40917,10 +40914,10 @@
         <v>3000</v>
       </c>
       <c r="P478" s="64" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q478" s="65" t="s">
-        <v>1763</v>
+        <v>1784</v>
       </c>
       <c r="V478" s="64" t="s">
         <v>551</v>
@@ -40958,13 +40955,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="64" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
       <c r="H479" s="64" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="I479" s="64" t="s">
-        <v>1753</v>
+        <v>1726</v>
       </c>
       <c r="K479" s="64">
         <v>-31</v>
@@ -40982,10 +40979,10 @@
         <v>6800</v>
       </c>
       <c r="P479" s="64" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q479" s="65" t="s">
-        <v>1764</v>
+        <v>861</v>
       </c>
       <c r="V479" s="64" t="s">
         <v>551</v>
@@ -41023,13 +41020,13 @@
         <v>1</v>
       </c>
       <c r="G480" s="64" t="s">
-        <v>1744</v>
+        <v>1717</v>
       </c>
       <c r="H480" s="64" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="I480" s="64" t="s">
-        <v>1754</v>
+        <v>1727</v>
       </c>
       <c r="K480" s="64">
         <v>-31</v>
@@ -41047,10 +41044,10 @@
         <v>9800</v>
       </c>
       <c r="P480" s="64" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q480" s="65" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="V480" s="64" t="s">
         <v>551</v>
@@ -41088,13 +41085,13 @@
         <v>1</v>
       </c>
       <c r="G481" s="64" t="s">
-        <v>1745</v>
+        <v>1718</v>
       </c>
       <c r="H481" s="64" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="I481" s="64" t="s">
-        <v>1755</v>
+        <v>1728</v>
       </c>
       <c r="K481" s="64">
         <v>-31</v>
@@ -41112,10 +41109,10 @@
         <v>19800</v>
       </c>
       <c r="P481" s="64" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q481" s="65" t="s">
-        <v>1766</v>
+        <v>862</v>
       </c>
       <c r="V481" s="64" t="s">
         <v>551</v>
@@ -41153,13 +41150,13 @@
         <v>1</v>
       </c>
       <c r="G482" s="64" t="s">
-        <v>1746</v>
+        <v>1719</v>
       </c>
       <c r="H482" s="64" t="s">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="I482" s="64" t="s">
-        <v>1756</v>
+        <v>1729</v>
       </c>
       <c r="K482" s="64">
         <v>-31</v>
@@ -41177,10 +41174,10 @@
         <v>49800</v>
       </c>
       <c r="P482" s="64" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q482" s="65" t="s">
-        <v>1767</v>
+        <v>1786</v>
       </c>
       <c r="V482" s="64" t="s">
         <v>551</v>
@@ -41218,13 +41215,13 @@
         <v>1</v>
       </c>
       <c r="G483" s="62" t="s">
-        <v>1747</v>
+        <v>1720</v>
       </c>
       <c r="H483" s="62" t="s">
-        <v>1750</v>
+        <v>1723</v>
       </c>
       <c r="I483" s="62" t="s">
-        <v>1757</v>
+        <v>1730</v>
       </c>
       <c r="K483" s="62">
         <v>-31</v>
@@ -41242,10 +41239,10 @@
         <v>99800</v>
       </c>
       <c r="P483" s="62" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q483" s="63" t="s">
-        <v>1768</v>
+        <v>1787</v>
       </c>
       <c r="V483" s="62" t="s">
         <v>551</v>
@@ -41283,13 +41280,13 @@
         <v>1</v>
       </c>
       <c r="G484" s="62" t="s">
-        <v>1748</v>
+        <v>1721</v>
       </c>
       <c r="H484" s="62" t="s">
-        <v>1750</v>
+        <v>1723</v>
       </c>
       <c r="I484" s="62" t="s">
-        <v>1758</v>
+        <v>1731</v>
       </c>
       <c r="K484" s="62">
         <v>-31</v>
@@ -41307,10 +41304,10 @@
         <v>249800</v>
       </c>
       <c r="P484" s="62" t="s">
-        <v>1760</v>
+        <v>1733</v>
       </c>
       <c r="Q484" s="63" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="V484" s="62" t="s">
         <v>551</v>
@@ -42111,7 +42108,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -42125,7 +42122,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -42139,7 +42136,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -42153,7 +42150,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -42167,7 +42164,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -42181,7 +42178,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -42195,7 +42192,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1765">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6236,18 +6236,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>6元礼包</t>
   </si>
   <si>
@@ -7308,130 +7296,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{next=10363,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10366,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10369,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10372,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10375,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10378,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10381,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","铜锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋18元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-v3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","铜锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币","银锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","金锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋30元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐砸金蛋498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","银锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","金锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","铜锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","银锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_silver_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_brass_hammer_2",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_silver_hammer_2",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_brass_hammer_3",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_silver_hammer_3",</t>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>青铜礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7664,30 +7528,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>180000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>480000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>980000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1980000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4980000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7709,6 +7549,74 @@
   </si>
   <si>
     <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_042_v1v3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_042_v4v7" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_042_v8v10" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7780,7 +7688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7843,25 +7751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7908,7 +7810,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8095,16 +7997,22 @@
     <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8504,16 +8412,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8643,7 +8551,7 @@
         <v>20</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -8735,7 +8643,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -8818,7 +8726,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -8901,7 +8809,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -9400,7 +9308,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -9729,7 +9637,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -9891,7 +9799,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -10110,7 +10018,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -10256,7 +10164,7 @@
         <v>44</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -10402,7 +10310,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -10486,7 +10394,7 @@
         <v>44</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -10544,13 +10452,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM484"/>
+  <dimension ref="A1:AM476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P461" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V452" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P479" sqref="P479"/>
+      <selection pane="bottomRight" activeCell="Z467" sqref="Z467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14923,7 +14831,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14941,10 +14849,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>548</v>
@@ -14979,7 +14887,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -21034,7 +20942,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>779</v>
@@ -25996,7 +25904,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>837</v>
@@ -29944,7 +29852,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -32959,7 +32867,7 @@
         <v>1294</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -34115,7 +34023,7 @@
         <v>1362</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1357</v>
@@ -34893,615 +34801,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+    <row r="386" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="64">
         <v>385</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="64">
         <v>10302</v>
       </c>
-      <c r="F386" s="5">
-        <v>1</v>
-      </c>
-      <c r="G386" s="5" t="s">
+      <c r="F386" s="64">
+        <v>1</v>
+      </c>
+      <c r="G386" s="64" t="s">
         <v>1386</v>
       </c>
-      <c r="H386" s="5" t="s">
+      <c r="H386" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="I386" s="5" t="s">
+      <c r="I386" s="64" t="s">
         <v>1393</v>
       </c>
-      <c r="K386" s="5">
+      <c r="K386" s="64">
         <v>-31</v>
       </c>
-      <c r="L386" s="5">
-        <v>0</v>
-      </c>
-      <c r="M386" s="5">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5" t="s">
+      <c r="L386" s="64">
+        <v>0</v>
+      </c>
+      <c r="M386" s="64">
+        <v>0</v>
+      </c>
+      <c r="N386" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O386" s="5">
+      <c r="O386" s="64">
         <v>1800</v>
       </c>
-      <c r="P386" s="5" t="s">
+      <c r="P386" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="Q386" s="10" t="s">
+      <c r="Q386" s="65" t="s">
         <v>1412</v>
       </c>
-      <c r="V386" s="5" t="s">
+      <c r="V386" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="W386" s="5">
+      <c r="W386" s="64">
         <v>9999999</v>
       </c>
-      <c r="X386" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y386" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z386" s="5">
+      <c r="X386" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="64">
         <v>44</v>
       </c>
-      <c r="AG386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
+      <c r="AG386" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="64">
         <v>386</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="64">
         <v>10303</v>
       </c>
-      <c r="F387" s="5">
-        <v>1</v>
-      </c>
-      <c r="G387" s="5" t="s">
+      <c r="F387" s="64">
+        <v>1</v>
+      </c>
+      <c r="G387" s="64" t="s">
         <v>1387</v>
       </c>
-      <c r="H387" s="5" t="s">
+      <c r="H387" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="I387" s="5" t="s">
+      <c r="I387" s="64" t="s">
         <v>1394</v>
       </c>
-      <c r="K387" s="5">
+      <c r="K387" s="64">
         <v>-31</v>
       </c>
-      <c r="L387" s="5">
-        <v>0</v>
-      </c>
-      <c r="M387" s="5">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5" t="s">
+      <c r="L387" s="64">
+        <v>0</v>
+      </c>
+      <c r="M387" s="64">
+        <v>0</v>
+      </c>
+      <c r="N387" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O387" s="5">
+      <c r="O387" s="64">
         <v>3000</v>
       </c>
-      <c r="P387" s="5" t="s">
+      <c r="P387" s="64" t="s">
         <v>1405</v>
       </c>
-      <c r="Q387" s="10" t="s">
+      <c r="Q387" s="65" t="s">
         <v>1413</v>
       </c>
-      <c r="V387" s="5" t="s">
+      <c r="V387" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="W387" s="5">
+      <c r="W387" s="64">
         <v>9999999</v>
       </c>
-      <c r="X387" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y387" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z387" s="5">
+      <c r="X387" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="64">
         <v>44</v>
       </c>
-      <c r="AG387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
+      <c r="AG387" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="64">
         <v>387</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="64">
         <v>10304</v>
       </c>
-      <c r="F388" s="5">
-        <v>1</v>
-      </c>
-      <c r="G388" s="5" t="s">
+      <c r="F388" s="64">
+        <v>1</v>
+      </c>
+      <c r="G388" s="64" t="s">
         <v>1388</v>
       </c>
-      <c r="H388" s="5" t="s">
+      <c r="H388" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="I388" s="5" t="s">
+      <c r="I388" s="64" t="s">
         <v>1395</v>
       </c>
-      <c r="K388" s="5">
+      <c r="K388" s="64">
         <v>-31</v>
       </c>
-      <c r="L388" s="5">
-        <v>0</v>
-      </c>
-      <c r="M388" s="5">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5" t="s">
+      <c r="L388" s="64">
+        <v>0</v>
+      </c>
+      <c r="M388" s="64">
+        <v>0</v>
+      </c>
+      <c r="N388" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O388" s="5">
+      <c r="O388" s="64">
         <v>4800</v>
       </c>
-      <c r="P388" s="5" t="s">
+      <c r="P388" s="64" t="s">
         <v>1406</v>
       </c>
-      <c r="Q388" s="10" t="s">
+      <c r="Q388" s="65" t="s">
         <v>1414</v>
       </c>
-      <c r="V388" s="5" t="s">
+      <c r="V388" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="W388" s="5">
+      <c r="W388" s="64">
         <v>9999999</v>
       </c>
-      <c r="X388" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y388" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z388" s="5">
+      <c r="X388" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="64">
         <v>44</v>
       </c>
-      <c r="AG388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
+      <c r="AG388" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="62">
         <v>388</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="62">
         <v>10305</v>
       </c>
-      <c r="F389" s="5">
-        <v>1</v>
-      </c>
-      <c r="G389" s="5" t="s">
+      <c r="F389" s="62">
+        <v>1</v>
+      </c>
+      <c r="G389" s="62" t="s">
         <v>1386</v>
       </c>
-      <c r="H389" s="5" t="s">
+      <c r="H389" s="62" t="s">
         <v>1391</v>
       </c>
-      <c r="I389" s="5" t="s">
+      <c r="I389" s="62" t="s">
         <v>1396</v>
       </c>
-      <c r="K389" s="5">
+      <c r="K389" s="62">
         <v>-31</v>
       </c>
-      <c r="L389" s="5">
-        <v>0</v>
-      </c>
-      <c r="M389" s="5">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5" t="s">
+      <c r="L389" s="62">
+        <v>0</v>
+      </c>
+      <c r="M389" s="62">
+        <v>0</v>
+      </c>
+      <c r="N389" s="62" t="s">
         <v>1402</v>
       </c>
-      <c r="O389" s="5">
+      <c r="O389" s="62">
         <v>4800</v>
       </c>
-      <c r="P389" s="5" t="s">
+      <c r="P389" s="62" t="s">
         <v>1407</v>
       </c>
-      <c r="Q389" s="10" t="s">
+      <c r="Q389" s="63" t="s">
         <v>1415</v>
       </c>
-      <c r="V389" s="5" t="s">
+      <c r="V389" s="62" t="s">
         <v>1422</v>
       </c>
-      <c r="W389" s="5">
+      <c r="W389" s="62">
         <v>9999999</v>
       </c>
-      <c r="X389" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y389" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z389" s="5">
+      <c r="X389" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="62">
         <v>45</v>
       </c>
-      <c r="AG389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
+      <c r="AG389" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="62">
         <v>389</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="62">
         <v>10306</v>
       </c>
-      <c r="F390" s="5">
-        <v>1</v>
-      </c>
-      <c r="G390" s="5" t="s">
+      <c r="F390" s="62">
+        <v>1</v>
+      </c>
+      <c r="G390" s="62" t="s">
         <v>1387</v>
       </c>
-      <c r="H390" s="5" t="s">
+      <c r="H390" s="62" t="s">
         <v>1391</v>
       </c>
-      <c r="I390" s="5" t="s">
+      <c r="I390" s="62" t="s">
         <v>1397</v>
       </c>
-      <c r="K390" s="5">
+      <c r="K390" s="62">
         <v>-31</v>
       </c>
-      <c r="L390" s="5">
-        <v>0</v>
-      </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5" t="s">
+      <c r="L390" s="62">
+        <v>0</v>
+      </c>
+      <c r="M390" s="62">
+        <v>0</v>
+      </c>
+      <c r="N390" s="62" t="s">
         <v>1402</v>
       </c>
-      <c r="O390" s="5">
+      <c r="O390" s="62">
         <v>9800</v>
       </c>
-      <c r="P390" s="5" t="s">
+      <c r="P390" s="62" t="s">
         <v>1408</v>
       </c>
-      <c r="Q390" s="10" t="s">
+      <c r="Q390" s="63" t="s">
         <v>1416</v>
       </c>
-      <c r="V390" s="5" t="s">
+      <c r="V390" s="62" t="s">
         <v>1422</v>
       </c>
-      <c r="W390" s="5">
+      <c r="W390" s="62">
         <v>9999999</v>
       </c>
-      <c r="X390" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y390" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z390" s="5">
+      <c r="X390" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="62">
         <v>45</v>
       </c>
-      <c r="AG390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AG390" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="62">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="62">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="62">
+        <v>1</v>
+      </c>
+      <c r="G391" s="62" t="s">
         <v>1388</v>
       </c>
-      <c r="H391" s="5" t="s">
+      <c r="H391" s="62" t="s">
         <v>1391</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="62" t="s">
         <v>1398</v>
       </c>
-      <c r="K391" s="5">
+      <c r="K391" s="62">
         <v>-31</v>
       </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="s">
+      <c r="L391" s="62">
+        <v>0</v>
+      </c>
+      <c r="M391" s="62">
+        <v>0</v>
+      </c>
+      <c r="N391" s="62" t="s">
         <v>1402</v>
       </c>
-      <c r="O391" s="5">
+      <c r="O391" s="62">
         <v>19800</v>
       </c>
-      <c r="P391" s="5" t="s">
+      <c r="P391" s="62" t="s">
         <v>1409</v>
       </c>
-      <c r="Q391" s="10" t="s">
+      <c r="Q391" s="63" t="s">
         <v>1417</v>
       </c>
-      <c r="V391" s="5" t="s">
+      <c r="V391" s="62" t="s">
         <v>1422</v>
       </c>
-      <c r="W391" s="5">
+      <c r="W391" s="62">
         <v>9999999</v>
       </c>
-      <c r="X391" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z391" s="5">
+      <c r="X391" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="62">
         <v>45</v>
       </c>
-      <c r="AG391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AG391" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="64">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="64">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="64">
+        <v>1</v>
+      </c>
+      <c r="G392" s="64" t="s">
         <v>1386</v>
       </c>
-      <c r="H392" s="5" t="s">
+      <c r="H392" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="64" t="s">
         <v>1399</v>
       </c>
-      <c r="K392" s="5">
+      <c r="K392" s="64">
         <v>-31</v>
       </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="s">
+      <c r="L392" s="64">
+        <v>0</v>
+      </c>
+      <c r="M392" s="64">
+        <v>0</v>
+      </c>
+      <c r="N392" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O392" s="5">
+      <c r="O392" s="64">
         <v>9800</v>
       </c>
-      <c r="P392" s="5" t="s">
+      <c r="P392" s="64" t="s">
         <v>1404</v>
       </c>
-      <c r="Q392" s="10" t="s">
+      <c r="Q392" s="65" t="s">
         <v>1418</v>
       </c>
-      <c r="V392" s="5" t="s">
+      <c r="V392" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="W392" s="5">
+      <c r="W392" s="64">
         <v>9999999</v>
       </c>
-      <c r="X392" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y392" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z392" s="5">
+      <c r="X392" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y392" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z392" s="64">
         <v>46</v>
       </c>
-      <c r="AG392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AG392" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="64">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="64">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="64">
+        <v>1</v>
+      </c>
+      <c r="G393" s="64" t="s">
         <v>1387</v>
       </c>
-      <c r="H393" s="5" t="s">
+      <c r="H393" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="64" t="s">
         <v>1400</v>
       </c>
-      <c r="K393" s="5">
+      <c r="K393" s="64">
         <v>-31</v>
       </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="s">
+      <c r="L393" s="64">
+        <v>0</v>
+      </c>
+      <c r="M393" s="64">
+        <v>0</v>
+      </c>
+      <c r="N393" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O393" s="5">
+      <c r="O393" s="64">
         <v>19800</v>
       </c>
-      <c r="P393" s="5" t="s">
+      <c r="P393" s="64" t="s">
         <v>1410</v>
       </c>
-      <c r="Q393" s="10" t="s">
+      <c r="Q393" s="65" t="s">
         <v>1420</v>
       </c>
-      <c r="V393" s="5" t="s">
+      <c r="V393" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="W393" s="5">
+      <c r="W393" s="64">
         <v>9999999</v>
       </c>
-      <c r="X393" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y393" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z393" s="5">
+      <c r="X393" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="64">
         <v>46</v>
       </c>
-      <c r="AG393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AG393" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="64">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="64">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="64">
+        <v>1</v>
+      </c>
+      <c r="G394" s="64" t="s">
         <v>1388</v>
       </c>
-      <c r="H394" s="5" t="s">
+      <c r="H394" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="64" t="s">
         <v>1401</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="64">
         <v>-31</v>
       </c>
-      <c r="L394" s="5">
-        <v>0</v>
-      </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5" t="s">
+      <c r="L394" s="64">
+        <v>0</v>
+      </c>
+      <c r="M394" s="64">
+        <v>0</v>
+      </c>
+      <c r="N394" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O394" s="5">
+      <c r="O394" s="64">
         <v>49800</v>
       </c>
-      <c r="P394" s="5" t="s">
+      <c r="P394" s="64" t="s">
         <v>1411</v>
       </c>
-      <c r="Q394" s="10" t="s">
+      <c r="Q394" s="65" t="s">
         <v>1419</v>
       </c>
-      <c r="V394" s="5" t="s">
+      <c r="V394" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="W394" s="5">
+      <c r="W394" s="64">
         <v>9999999</v>
       </c>
-      <c r="X394" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y394" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z394" s="5">
+      <c r="X394" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y394" s="64">
+        <v>1606147199</v>
+      </c>
+      <c r="Z394" s="64">
         <v>46</v>
       </c>
-      <c r="AG394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
+      <c r="AG394" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="64">
         <v>1</v>
       </c>
     </row>
@@ -35516,10 +35424,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35537,10 +35445,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>551</v>
@@ -35578,10 +35486,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35599,10 +35507,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>551</v>
@@ -35643,7 +35551,7 @@
         <v>299</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35661,10 +35569,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>551</v>
@@ -35705,7 +35613,7 @@
         <v>302</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35723,10 +35631,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>551</v>
@@ -35764,10 +35672,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35785,10 +35693,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Q399" s="10" t="s">
         <v>1437</v>
-      </c>
-      <c r="Q399" s="10" t="s">
-        <v>1440</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>551</v>
@@ -35826,10 +35734,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -35847,10 +35755,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>551</v>
@@ -35888,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -35903,19 +35811,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="O401" s="5">
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -35953,10 +35861,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -35968,19 +35876,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36018,10 +35926,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36033,19 +35941,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="5" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O403" s="5">
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36083,10 +35991,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36098,19 +36006,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="O404" s="5">
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36148,10 +36056,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36163,19 +36071,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="5" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O405" s="5">
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36213,10 +36121,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36228,19 +36136,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="5" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O406" s="5">
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36278,10 +36186,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36293,19 +36201,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36343,10 +36251,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -36364,13 +36272,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="V408" s="5" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -36408,10 +36316,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="K409" s="5">
         <v>-31</v>
@@ -36429,13 +36337,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="V409" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -36473,10 +36381,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="K410" s="5">
         <v>-31</v>
@@ -36494,13 +36402,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -36538,10 +36446,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="K411" s="5">
         <v>-31</v>
@@ -36559,13 +36467,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q411" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V411" s="5" t="s">
         <v>1492</v>
-      </c>
-      <c r="Q411" s="10" t="s">
-        <v>1625</v>
-      </c>
-      <c r="V411" s="5" t="s">
-        <v>1495</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -36603,10 +36511,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="K412" s="5">
         <v>-31</v>
@@ -36624,13 +36532,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="V412" s="5" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -36668,10 +36576,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36689,13 +36597,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="V413" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -36736,7 +36644,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36757,10 +36665,10 @@
         <v>459</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36795,13 +36703,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H415" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="H415" s="6" t="s">
-        <v>1506</v>
-      </c>
       <c r="I415" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36825,7 +36733,7 @@
         <v>1263</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>119</v>
@@ -36863,13 +36771,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H416" s="6" t="s">
         <v>1504</v>
       </c>
-      <c r="H416" s="6" t="s">
-        <v>1507</v>
-      </c>
       <c r="I416" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36890,10 +36798,10 @@
         <v>1271</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>119</v>
@@ -36931,13 +36839,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36999,13 +36907,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37026,7 +36934,7 @@
         <v>1273</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1279</v>
@@ -37067,13 +36975,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37094,7 +37002,7 @@
         <v>1274</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1279</v>
@@ -37135,13 +37043,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H420" s="6" t="s">
         <v>1505</v>
       </c>
-      <c r="H420" s="6" t="s">
-        <v>1508</v>
-      </c>
       <c r="I420" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37162,7 +37070,7 @@
         <v>1275</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1279</v>
@@ -37203,10 +37111,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37224,13 +37132,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37245,7 +37153,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37271,13 +37179,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -37295,10 +37203,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -37339,13 +37247,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -37363,10 +37271,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -37407,13 +37315,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -37431,10 +37339,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -37475,10 +37383,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37496,10 +37404,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -37531,10 +37439,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37552,10 +37460,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -37587,10 +37495,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37608,10 +37516,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -37643,10 +37551,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37664,10 +37572,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -37699,10 +37607,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37720,10 +37628,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37755,13 +37663,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37779,13 +37687,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37823,13 +37731,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37847,10 +37755,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37891,13 +37799,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37915,10 +37823,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37959,13 +37867,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37983,10 +37891,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -38027,13 +37935,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="H434" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="K434" s="5">
         <v>-31</v>
@@ -38051,10 +37959,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="V434" s="5" t="s">
         <v>551</v>
@@ -38092,13 +38000,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -38116,10 +38024,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="V435" s="5" t="s">
         <v>551</v>
@@ -38157,13 +38065,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38181,10 +38089,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>551</v>
@@ -38222,13 +38130,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38246,10 +38154,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="V437" s="5" t="s">
         <v>551</v>
@@ -38287,13 +38195,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38311,10 +38219,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="V438" s="5" t="s">
         <v>551</v>
@@ -38352,13 +38260,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38376,10 +38284,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="V439" s="5" t="s">
         <v>551</v>
@@ -38417,13 +38325,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38435,19 +38343,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="O440" s="5">
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1734</v>
+        <v>1699</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38482,10 +38390,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38503,13 +38411,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38544,10 +38452,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38565,13 +38473,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38606,10 +38514,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38627,13 +38535,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38668,10 +38576,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38689,13 +38597,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38730,10 +38638,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38751,13 +38659,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="Q445" s="10" t="s">
+        <v>1626</v>
+      </c>
+      <c r="V445" s="5" t="s">
         <v>1629</v>
-      </c>
-      <c r="V445" s="5" t="s">
-        <v>1632</v>
       </c>
       <c r="W445" s="5">
         <v>9999999</v>
@@ -38792,10 +38700,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38813,13 +38721,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="V446" s="5" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="W446" s="5">
         <v>9999999</v>
@@ -38854,13 +38762,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1755</v>
+        <v>1720</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38878,13 +38786,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1756</v>
+        <v>1721</v>
       </c>
       <c r="V447" s="54" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="W447" s="54">
         <v>9999999</v>
@@ -38894,6 +38802,9 @@
       </c>
       <c r="Y447" s="54">
         <v>2552233600</v>
+      </c>
+      <c r="Z447" s="54">
+        <v>52</v>
       </c>
       <c r="AG447" s="54">
         <v>1</v>
@@ -38919,13 +38830,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1735</v>
+        <v>1700</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38943,13 +38854,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1757</v>
+        <v>1722</v>
       </c>
       <c r="V448" s="54" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="W448" s="54">
         <v>9999999</v>
@@ -38984,13 +38895,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1736</v>
+        <v>1701</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -39008,13 +38919,13 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1758</v>
+        <v>1723</v>
       </c>
       <c r="V449" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W449" s="54">
         <v>9999999</v>
@@ -39026,7 +38937,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z449" s="54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG449" s="54">
         <v>1</v>
@@ -39041,201 +38952,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="54">
+    <row r="450" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="66">
         <v>449</v>
       </c>
-      <c r="B450" s="54">
+      <c r="B450" s="66">
         <v>10366</v>
       </c>
-      <c r="F450" s="54">
-        <v>1</v>
-      </c>
-      <c r="G450" s="54" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H450" s="54" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I450" s="54" t="s">
-        <v>1737</v>
-      </c>
-      <c r="K450" s="54">
+      <c r="F450" s="66">
+        <v>1</v>
+      </c>
+      <c r="G450" s="66" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H450" s="66" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I450" s="66" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K450" s="66">
         <v>-31</v>
       </c>
-      <c r="L450" s="54">
-        <v>0</v>
-      </c>
-      <c r="M450" s="54">
-        <v>0</v>
-      </c>
-      <c r="N450" s="54" t="s">
+      <c r="L450" s="66">
+        <v>0</v>
+      </c>
+      <c r="M450" s="66">
+        <v>0</v>
+      </c>
+      <c r="N450" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O450" s="54">
+      <c r="O450" s="66">
         <v>3800</v>
       </c>
-      <c r="P450" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q450" s="55" t="s">
-        <v>1759</v>
-      </c>
-      <c r="V450" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W450" s="54">
+      <c r="P450" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q450" s="67" t="s">
+        <v>1724</v>
+      </c>
+      <c r="V450" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W450" s="66">
         <v>9999999</v>
       </c>
-      <c r="X450" s="54">
+      <c r="X450" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y450" s="54">
+      <c r="Y450" s="66">
         <v>2552233600</v>
       </c>
-      <c r="AG450" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH450" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK450" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="54">
+      <c r="Z450" s="66">
+        <v>54</v>
+      </c>
+      <c r="AG450" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="66">
         <v>450</v>
       </c>
-      <c r="B451" s="54">
+      <c r="B451" s="66">
         <v>10367</v>
       </c>
-      <c r="F451" s="54">
-        <v>1</v>
-      </c>
-      <c r="G451" s="54" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H451" s="54" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I451" s="54" t="s">
-        <v>1738</v>
-      </c>
-      <c r="K451" s="54">
+      <c r="F451" s="66">
+        <v>1</v>
+      </c>
+      <c r="G451" s="66" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H451" s="66" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I451" s="66" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K451" s="66">
         <v>-31</v>
       </c>
-      <c r="L451" s="54">
-        <v>0</v>
-      </c>
-      <c r="M451" s="54">
-        <v>0</v>
-      </c>
-      <c r="N451" s="54" t="s">
+      <c r="L451" s="66">
+        <v>0</v>
+      </c>
+      <c r="M451" s="66">
+        <v>0</v>
+      </c>
+      <c r="N451" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O451" s="54">
+      <c r="O451" s="66">
         <v>3800</v>
       </c>
-      <c r="P451" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q451" s="55" t="s">
-        <v>1760</v>
-      </c>
-      <c r="V451" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W451" s="54">
+      <c r="P451" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q451" s="67" t="s">
+        <v>1725</v>
+      </c>
+      <c r="V451" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W451" s="66">
         <v>9999999</v>
       </c>
-      <c r="X451" s="54">
+      <c r="X451" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y451" s="54">
+      <c r="Y451" s="66">
         <v>2552233600</v>
       </c>
-      <c r="AG451" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH451" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK451" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="54">
+      <c r="AG451" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="66">
         <v>451</v>
       </c>
-      <c r="B452" s="54">
+      <c r="B452" s="66">
         <v>10368</v>
       </c>
-      <c r="F452" s="54">
-        <v>1</v>
-      </c>
-      <c r="G452" s="54" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H452" s="54" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I452" s="54" t="s">
-        <v>1739</v>
-      </c>
-      <c r="K452" s="54">
+      <c r="F452" s="66">
+        <v>1</v>
+      </c>
+      <c r="G452" s="66" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H452" s="66" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I452" s="66" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K452" s="66">
         <v>-31</v>
       </c>
-      <c r="L452" s="54">
-        <v>0</v>
-      </c>
-      <c r="M452" s="54">
-        <v>0</v>
-      </c>
-      <c r="N452" s="54" t="s">
+      <c r="L452" s="66">
+        <v>0</v>
+      </c>
+      <c r="M452" s="66">
+        <v>0</v>
+      </c>
+      <c r="N452" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O452" s="54">
+      <c r="O452" s="66">
         <v>3800</v>
       </c>
-      <c r="P452" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q452" s="55" t="s">
-        <v>1761</v>
-      </c>
-      <c r="V452" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W452" s="54">
+      <c r="P452" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q452" s="67" t="s">
+        <v>1726</v>
+      </c>
+      <c r="V452" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W452" s="66">
         <v>9999999</v>
       </c>
-      <c r="X452" s="54">
+      <c r="X452" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y452" s="54">
+      <c r="Y452" s="66">
         <v>2552233600</v>
       </c>
-      <c r="Z452" s="54">
-        <v>53</v>
-      </c>
-      <c r="AG452" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH452" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK452" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="54">
+      <c r="Z452" s="66">
+        <v>55</v>
+      </c>
+      <c r="AG452" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="66">
         <v>1</v>
       </c>
     </row>
@@ -39250,13 +39164,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1740</v>
+        <v>1705</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39274,13 +39188,13 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1762</v>
+        <v>1727</v>
       </c>
       <c r="V453" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W453" s="54">
         <v>9999999</v>
@@ -39290,6 +39204,9 @@
       </c>
       <c r="Y453" s="54">
         <v>2552233600</v>
+      </c>
+      <c r="Z453" s="54">
+        <v>56</v>
       </c>
       <c r="AG453" s="54">
         <v>1</v>
@@ -39315,13 +39232,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1741</v>
+        <v>1706</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39339,13 +39256,13 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1763</v>
+        <v>1728</v>
       </c>
       <c r="V454" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W454" s="54">
         <v>9999999</v>
@@ -39380,13 +39297,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1742</v>
+        <v>1707</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39404,13 +39321,13 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1764</v>
+        <v>1729</v>
       </c>
       <c r="V455" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W455" s="54">
         <v>9999999</v>
@@ -39422,7 +39339,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z455" s="54">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AG455" s="54">
         <v>1</v>
@@ -39437,201 +39354,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="54">
+    <row r="456" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="66">
         <v>455</v>
       </c>
-      <c r="B456" s="54">
+      <c r="B456" s="66">
         <v>10372</v>
       </c>
-      <c r="F456" s="54">
-        <v>1</v>
-      </c>
-      <c r="G456" s="54" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H456" s="54" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I456" s="54" t="s">
-        <v>1743</v>
-      </c>
-      <c r="K456" s="54">
+      <c r="F456" s="66">
+        <v>1</v>
+      </c>
+      <c r="G456" s="66" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H456" s="66" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I456" s="66" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K456" s="66">
         <v>-31</v>
       </c>
-      <c r="L456" s="54">
-        <v>0</v>
-      </c>
-      <c r="M456" s="54">
-        <v>0</v>
-      </c>
-      <c r="N456" s="54" t="s">
+      <c r="L456" s="66">
+        <v>0</v>
+      </c>
+      <c r="M456" s="66">
+        <v>0</v>
+      </c>
+      <c r="N456" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O456" s="54">
+      <c r="O456" s="66">
         <v>19800</v>
       </c>
-      <c r="P456" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q456" s="55" t="s">
-        <v>1765</v>
-      </c>
-      <c r="V456" s="54" t="s">
+      <c r="P456" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q456" s="67" t="s">
+        <v>1730</v>
+      </c>
+      <c r="V456" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W456" s="66">
+        <v>9999999</v>
+      </c>
+      <c r="X456" s="66">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="66">
+        <v>2552233600</v>
+      </c>
+      <c r="Z456" s="66">
+        <v>58</v>
+      </c>
+      <c r="AG456" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="66">
+        <v>456</v>
+      </c>
+      <c r="B457" s="66">
+        <v>10373</v>
+      </c>
+      <c r="F457" s="66">
+        <v>1</v>
+      </c>
+      <c r="G457" s="66" t="s">
         <v>1638</v>
       </c>
-      <c r="W456" s="54">
+      <c r="H457" s="66" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I457" s="66" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K457" s="66">
+        <v>-31</v>
+      </c>
+      <c r="L457" s="66">
+        <v>0</v>
+      </c>
+      <c r="M457" s="66">
+        <v>0</v>
+      </c>
+      <c r="N457" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="O457" s="66">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q457" s="67" t="s">
+        <v>1731</v>
+      </c>
+      <c r="V457" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W457" s="66">
         <v>9999999</v>
       </c>
-      <c r="X456" s="54">
+      <c r="X457" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y456" s="54">
+      <c r="Y457" s="66">
         <v>2552233600</v>
       </c>
-      <c r="AG456" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH456" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK456" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="54">
-        <v>456</v>
-      </c>
-      <c r="B457" s="54">
-        <v>10373</v>
-      </c>
-      <c r="F457" s="54">
-        <v>1</v>
-      </c>
-      <c r="G457" s="54" t="s">
-        <v>1641</v>
-      </c>
-      <c r="H457" s="54" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I457" s="54" t="s">
-        <v>1744</v>
-      </c>
-      <c r="K457" s="54">
+      <c r="AG457" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="66">
+        <v>457</v>
+      </c>
+      <c r="B458" s="66">
+        <v>10374</v>
+      </c>
+      <c r="F458" s="66">
+        <v>1</v>
+      </c>
+      <c r="G458" s="66" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H458" s="66" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I458" s="66" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K458" s="66">
         <v>-31</v>
       </c>
-      <c r="L457" s="54">
-        <v>0</v>
-      </c>
-      <c r="M457" s="54">
-        <v>0</v>
-      </c>
-      <c r="N457" s="54" t="s">
+      <c r="L458" s="66">
+        <v>0</v>
+      </c>
+      <c r="M458" s="66">
+        <v>0</v>
+      </c>
+      <c r="N458" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O457" s="54">
+      <c r="O458" s="66">
         <v>19800</v>
       </c>
-      <c r="P457" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q457" s="55" t="s">
-        <v>1766</v>
-      </c>
-      <c r="V457" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W457" s="54">
+      <c r="P458" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q458" s="67" t="s">
+        <v>1732</v>
+      </c>
+      <c r="V458" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W458" s="66">
         <v>9999999</v>
       </c>
-      <c r="X457" s="54">
+      <c r="X458" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y457" s="54">
+      <c r="Y458" s="66">
         <v>2552233600</v>
       </c>
-      <c r="AG457" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH457" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK457" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="54">
-        <v>457</v>
-      </c>
-      <c r="B458" s="54">
-        <v>10374</v>
-      </c>
-      <c r="F458" s="54">
-        <v>1</v>
-      </c>
-      <c r="G458" s="54" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H458" s="54" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I458" s="54" t="s">
-        <v>1745</v>
-      </c>
-      <c r="K458" s="54">
-        <v>-31</v>
-      </c>
-      <c r="L458" s="54">
-        <v>0</v>
-      </c>
-      <c r="M458" s="54">
-        <v>0</v>
-      </c>
-      <c r="N458" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="O458" s="54">
-        <v>19800</v>
-      </c>
-      <c r="P458" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q458" s="55" t="s">
-        <v>1767</v>
-      </c>
-      <c r="V458" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W458" s="54">
-        <v>9999999</v>
-      </c>
-      <c r="X458" s="54">
-        <v>1605571200</v>
-      </c>
-      <c r="Y458" s="54">
-        <v>2552233600</v>
-      </c>
-      <c r="Z458" s="54">
-        <v>55</v>
-      </c>
-      <c r="AG458" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH458" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK458" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="54">
+      <c r="Z458" s="66">
+        <v>59</v>
+      </c>
+      <c r="AG458" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="66">
         <v>1</v>
       </c>
     </row>
@@ -39646,13 +39566,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1746</v>
+        <v>1711</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39670,13 +39590,13 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1768</v>
+        <v>1733</v>
       </c>
       <c r="V459" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W459" s="54">
         <v>9999999</v>
@@ -39686,6 +39606,9 @@
       </c>
       <c r="Y459" s="54">
         <v>2552233600</v>
+      </c>
+      <c r="Z459" s="54">
+        <v>60</v>
       </c>
       <c r="AG459" s="54">
         <v>1</v>
@@ -39711,13 +39634,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1747</v>
+        <v>1712</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39735,13 +39658,13 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1769</v>
+        <v>1734</v>
       </c>
       <c r="V460" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W460" s="54">
         <v>9999999</v>
@@ -39776,13 +39699,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1748</v>
+        <v>1713</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39800,13 +39723,13 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1770</v>
+        <v>1735</v>
       </c>
       <c r="V461" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W461" s="54">
         <v>9999999</v>
@@ -39818,7 +39741,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z461" s="54">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AG461" s="54">
         <v>1</v>
@@ -39833,201 +39756,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="54">
+    <row r="462" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="66">
         <v>461</v>
       </c>
-      <c r="B462" s="54">
+      <c r="B462" s="66">
         <v>10378</v>
       </c>
-      <c r="F462" s="54">
-        <v>1</v>
-      </c>
-      <c r="G462" s="54" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H462" s="54" t="s">
-        <v>1671</v>
-      </c>
-      <c r="I462" s="54" t="s">
-        <v>1749</v>
-      </c>
-      <c r="K462" s="54">
+      <c r="F462" s="66">
+        <v>1</v>
+      </c>
+      <c r="G462" s="66" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H462" s="66" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I462" s="66" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K462" s="66">
         <v>-31</v>
       </c>
-      <c r="L462" s="54">
-        <v>0</v>
-      </c>
-      <c r="M462" s="54">
-        <v>0</v>
-      </c>
-      <c r="N462" s="54" t="s">
+      <c r="L462" s="66">
+        <v>0</v>
+      </c>
+      <c r="M462" s="66">
+        <v>0</v>
+      </c>
+      <c r="N462" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O462" s="54">
+      <c r="O462" s="66">
         <v>99800</v>
       </c>
-      <c r="P462" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q462" s="55" t="s">
-        <v>1771</v>
-      </c>
-      <c r="V462" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W462" s="54">
+      <c r="P462" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q462" s="67" t="s">
+        <v>1736</v>
+      </c>
+      <c r="V462" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W462" s="66">
         <v>9999999</v>
       </c>
-      <c r="X462" s="54">
+      <c r="X462" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y462" s="54">
+      <c r="Y462" s="66">
         <v>2552233600</v>
       </c>
-      <c r="AG462" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH462" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK462" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="54">
+      <c r="Z462" s="66">
+        <v>62</v>
+      </c>
+      <c r="AG462" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="66">
         <v>462</v>
       </c>
-      <c r="B463" s="54">
+      <c r="B463" s="66">
         <v>10379</v>
       </c>
-      <c r="F463" s="54">
-        <v>1</v>
-      </c>
-      <c r="G463" s="54" t="s">
-        <v>1654</v>
-      </c>
-      <c r="H463" s="54" t="s">
-        <v>1672</v>
-      </c>
-      <c r="I463" s="54" t="s">
-        <v>1750</v>
-      </c>
-      <c r="K463" s="54">
+      <c r="F463" s="66">
+        <v>1</v>
+      </c>
+      <c r="G463" s="66" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H463" s="66" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I463" s="66" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K463" s="66">
         <v>-31</v>
       </c>
-      <c r="L463" s="54">
-        <v>0</v>
-      </c>
-      <c r="M463" s="54">
-        <v>0</v>
-      </c>
-      <c r="N463" s="54" t="s">
+      <c r="L463" s="66">
+        <v>0</v>
+      </c>
+      <c r="M463" s="66">
+        <v>0</v>
+      </c>
+      <c r="N463" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O463" s="54">
+      <c r="O463" s="66">
         <v>99800</v>
       </c>
-      <c r="P463" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q463" s="55" t="s">
-        <v>1772</v>
-      </c>
-      <c r="V463" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W463" s="54">
+      <c r="P463" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q463" s="67" t="s">
+        <v>1737</v>
+      </c>
+      <c r="V463" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W463" s="66">
         <v>9999999</v>
       </c>
-      <c r="X463" s="54">
+      <c r="X463" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y463" s="54">
+      <c r="Y463" s="66">
         <v>2552233600</v>
       </c>
-      <c r="AG463" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH463" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK463" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="54">
+      <c r="AG463" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="66">
         <v>463</v>
       </c>
-      <c r="B464" s="54">
+      <c r="B464" s="66">
         <v>10380</v>
       </c>
-      <c r="F464" s="54">
-        <v>1</v>
-      </c>
-      <c r="G464" s="54" t="s">
-        <v>1655</v>
-      </c>
-      <c r="H464" s="54" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I464" s="54" t="s">
-        <v>1751</v>
-      </c>
-      <c r="K464" s="54">
+      <c r="F464" s="66">
+        <v>1</v>
+      </c>
+      <c r="G464" s="66" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H464" s="66" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I464" s="66" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K464" s="66">
         <v>-31</v>
       </c>
-      <c r="L464" s="54">
-        <v>0</v>
-      </c>
-      <c r="M464" s="54">
-        <v>0</v>
-      </c>
-      <c r="N464" s="54" t="s">
+      <c r="L464" s="66">
+        <v>0</v>
+      </c>
+      <c r="M464" s="66">
+        <v>0</v>
+      </c>
+      <c r="N464" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="O464" s="54">
+      <c r="O464" s="66">
         <v>99800</v>
       </c>
-      <c r="P464" s="54" t="s">
-        <v>1681</v>
-      </c>
-      <c r="Q464" s="55" t="s">
-        <v>1773</v>
-      </c>
-      <c r="V464" s="54" t="s">
-        <v>1638</v>
-      </c>
-      <c r="W464" s="54">
+      <c r="P464" s="66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q464" s="67" t="s">
+        <v>1738</v>
+      </c>
+      <c r="V464" s="66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W464" s="66">
         <v>9999999</v>
       </c>
-      <c r="X464" s="54">
+      <c r="X464" s="66">
         <v>1605571200</v>
       </c>
-      <c r="Y464" s="54">
+      <c r="Y464" s="66">
         <v>2552233600</v>
       </c>
-      <c r="Z464" s="54">
-        <v>57</v>
-      </c>
-      <c r="AG464" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH464" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK464" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="54">
+      <c r="Z464" s="66">
+        <v>63</v>
+      </c>
+      <c r="AG464" s="66">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="66">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="66">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="66">
         <v>1</v>
       </c>
     </row>
@@ -40042,13 +39968,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1752</v>
+        <v>1717</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40066,13 +39992,13 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1774</v>
+        <v>1739</v>
       </c>
       <c r="V465" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W465" s="54">
         <v>9999999</v>
@@ -40082,6 +40008,9 @@
       </c>
       <c r="Y465" s="54">
         <v>2552233600</v>
+      </c>
+      <c r="Z465" s="54">
+        <v>64</v>
       </c>
       <c r="AG465" s="54">
         <v>1</v>
@@ -40107,13 +40036,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1753</v>
+        <v>1718</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40131,13 +40060,13 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1775</v>
+        <v>1740</v>
       </c>
       <c r="V466" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W466" s="54">
         <v>9999999</v>
@@ -40172,13 +40101,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1754</v>
+        <v>1719</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40196,13 +40125,13 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1732</v>
+        <v>1697</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1776</v>
+        <v>1741</v>
       </c>
       <c r="V467" s="54" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="W467" s="54">
         <v>9999999</v>
@@ -40214,7 +40143,7 @@
         <v>2552233600</v>
       </c>
       <c r="Z467" s="54">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AG467" s="54">
         <v>1</v>
@@ -40229,198 +40158,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="58">
+    <row r="468" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="60">
         <v>467</v>
       </c>
-      <c r="B468" s="58">
+      <c r="B468" s="60">
         <v>10384</v>
       </c>
-      <c r="F468" s="58">
-        <v>1</v>
-      </c>
-      <c r="G468" s="58" t="s">
+      <c r="F468" s="60">
+        <v>1</v>
+      </c>
+      <c r="G468" s="60" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H468" s="60" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I468" s="60" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K468" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="60">
+        <v>0</v>
+      </c>
+      <c r="M468" s="60">
+        <v>0</v>
+      </c>
+      <c r="N468" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O468" s="60">
+        <v>600</v>
+      </c>
+      <c r="P468" s="60" t="s">
+        <v>1698</v>
+      </c>
+      <c r="Q468" s="61" t="s">
+        <v>1742</v>
+      </c>
+      <c r="V468" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="W468" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="60">
+        <v>468</v>
+      </c>
+      <c r="B469" s="60">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="60">
+        <v>1</v>
+      </c>
+      <c r="G469" s="60" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H469" s="60" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I469" s="60" t="s">
         <v>1690</v>
       </c>
-      <c r="H468" s="58" t="s">
+      <c r="K469" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="60">
+        <v>0</v>
+      </c>
+      <c r="M469" s="60">
+        <v>0</v>
+      </c>
+      <c r="N469" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O469" s="60">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="60" t="s">
+        <v>1698</v>
+      </c>
+      <c r="Q469" s="61" t="s">
+        <v>1743</v>
+      </c>
+      <c r="V469" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="W469" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="60">
+        <v>469</v>
+      </c>
+      <c r="B470" s="60">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="60">
+        <v>1</v>
+      </c>
+      <c r="G470" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H470" s="60" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I470" s="60" t="s">
         <v>1691</v>
       </c>
-      <c r="I468" s="58" t="s">
-        <v>1689</v>
-      </c>
-      <c r="K468" s="58">
+      <c r="K470" s="60">
         <v>-31</v>
       </c>
-      <c r="L468" s="58">
-        <v>0</v>
-      </c>
-      <c r="M468" s="58">
-        <v>0</v>
-      </c>
-      <c r="N468" s="54" t="s">
+      <c r="L470" s="60">
+        <v>0</v>
+      </c>
+      <c r="M470" s="60">
+        <v>0</v>
+      </c>
+      <c r="N470" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="O468" s="58">
-        <v>1800</v>
-      </c>
-      <c r="P468" s="54" t="s">
-        <v>1403</v>
-      </c>
-      <c r="Q468" s="59" t="s">
-        <v>1777</v>
-      </c>
-      <c r="V468" s="58" t="s">
-        <v>1713</v>
-      </c>
-      <c r="W468" s="58">
+      <c r="O470" s="60">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="60" t="s">
+        <v>1698</v>
+      </c>
+      <c r="Q470" s="61" t="s">
+        <v>861</v>
+      </c>
+      <c r="V470" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="W470" s="60">
         <v>9999999</v>
       </c>
-      <c r="X468" s="58">
+      <c r="X470" s="60">
         <v>1605571200</v>
       </c>
-      <c r="Y468" s="58">
-        <v>1606147199</v>
-      </c>
-      <c r="AG468" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH468" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK468" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="58">
-        <v>468</v>
-      </c>
-      <c r="B469" s="58">
-        <v>10385</v>
-      </c>
-      <c r="F469" s="58">
-        <v>1</v>
-      </c>
-      <c r="G469" s="58" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H469" s="58" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I469" s="58" t="s">
-        <v>1695</v>
-      </c>
-      <c r="K469" s="58">
-        <v>-31</v>
-      </c>
-      <c r="L469" s="58">
-        <v>0</v>
-      </c>
-      <c r="M469" s="58">
-        <v>0</v>
-      </c>
-      <c r="N469" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="O469" s="58">
-        <v>3000</v>
-      </c>
-      <c r="P469" s="54" t="s">
-        <v>1708</v>
-      </c>
-      <c r="Q469" s="59" t="s">
-        <v>1778</v>
-      </c>
-      <c r="V469" s="58" t="s">
-        <v>1713</v>
-      </c>
-      <c r="W469" s="58">
-        <v>9999999</v>
-      </c>
-      <c r="X469" s="58">
-        <v>1605571200</v>
-      </c>
-      <c r="Y469" s="58">
-        <v>1606147199</v>
-      </c>
-      <c r="AG469" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH469" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK469" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="58">
-        <v>469</v>
-      </c>
-      <c r="B470" s="58">
-        <v>10386</v>
-      </c>
-      <c r="F470" s="58">
-        <v>1</v>
-      </c>
-      <c r="G470" s="58" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H470" s="58" t="s">
-        <v>1693</v>
-      </c>
-      <c r="I470" s="58" t="s">
-        <v>1696</v>
-      </c>
-      <c r="K470" s="58">
-        <v>-31</v>
-      </c>
-      <c r="L470" s="58">
-        <v>0</v>
-      </c>
-      <c r="M470" s="58">
-        <v>0</v>
-      </c>
-      <c r="N470" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="O470" s="58">
-        <v>4800</v>
-      </c>
-      <c r="P470" s="54" t="s">
-        <v>1403</v>
-      </c>
-      <c r="Q470" s="59" t="s">
-        <v>1779</v>
-      </c>
-      <c r="V470" s="58" t="s">
-        <v>1713</v>
-      </c>
-      <c r="W470" s="58">
-        <v>9999999</v>
-      </c>
-      <c r="X470" s="58">
-        <v>1605571200</v>
-      </c>
-      <c r="Y470" s="58">
-        <v>1606147199</v>
-      </c>
-      <c r="AG470" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH470" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK470" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="58">
+      <c r="Y470" s="60">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="60">
         <v>1</v>
       </c>
     </row>
@@ -40435,13 +40364,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="60" t="s">
-        <v>1699</v>
+        <v>1682</v>
       </c>
       <c r="H471" s="60" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="I471" s="60" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="K471" s="60">
         <v>-31</v>
@@ -40456,16 +40385,16 @@
         <v>111</v>
       </c>
       <c r="O471" s="60">
-        <v>4800</v>
+        <v>9800</v>
       </c>
       <c r="P471" s="60" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1779</v>
+        <v>1744</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1713</v>
+        <v>551</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40474,7 +40403,7 @@
         <v>1605571200</v>
       </c>
       <c r="Y471" s="60">
-        <v>1606147199</v>
+        <v>2552233600</v>
       </c>
       <c r="AG471" s="60">
         <v>1</v>
@@ -40500,13 +40429,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="60" t="s">
-        <v>1700</v>
+        <v>1683</v>
       </c>
       <c r="H472" s="60" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="I472" s="60" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="K472" s="60">
         <v>-31</v>
@@ -40521,16 +40450,16 @@
         <v>111</v>
       </c>
       <c r="O472" s="60">
-        <v>9800</v>
+        <v>19800</v>
       </c>
       <c r="P472" s="60" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="Q472" s="61" t="s">
-        <v>1780</v>
+        <v>862</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1713</v>
+        <v>551</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40539,7 +40468,7 @@
         <v>1605571200</v>
       </c>
       <c r="Y472" s="60">
-        <v>1606147199</v>
+        <v>2552233600</v>
       </c>
       <c r="AG472" s="60">
         <v>1</v>
@@ -40565,13 +40494,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="60" t="s">
-        <v>1701</v>
+        <v>1684</v>
       </c>
       <c r="H473" s="60" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="I473" s="60" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="K473" s="60">
         <v>-31</v>
@@ -40586,16 +40515,16 @@
         <v>111</v>
       </c>
       <c r="O473" s="60">
-        <v>19800</v>
+        <v>49800</v>
       </c>
       <c r="P473" s="60" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1781</v>
+        <v>1745</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1713</v>
+        <v>551</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40604,7 +40533,7 @@
         <v>1605571200</v>
       </c>
       <c r="Y473" s="60">
-        <v>1606147199</v>
+        <v>2552233600</v>
       </c>
       <c r="AG473" s="60">
         <v>1</v>
@@ -40620,23 +40549,23 @@
       </c>
     </row>
     <row r="474" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="58">
+      <c r="A474" s="54">
         <v>473</v>
       </c>
-      <c r="B474" s="58">
+      <c r="B474" s="54">
         <v>10390</v>
       </c>
       <c r="F474" s="58">
         <v>1</v>
       </c>
       <c r="G474" s="58" t="s">
-        <v>1702</v>
+        <v>1685</v>
       </c>
       <c r="H474" s="58" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="I474" s="58" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
       <c r="K474" s="58">
         <v>-31</v>
@@ -40647,20 +40576,20 @@
       <c r="M474" s="58">
         <v>0</v>
       </c>
-      <c r="N474" s="54" t="s">
+      <c r="N474" s="58" t="s">
         <v>111</v>
       </c>
       <c r="O474" s="58">
-        <v>9800</v>
-      </c>
-      <c r="P474" s="54" t="s">
-        <v>1711</v>
+        <v>99800</v>
+      </c>
+      <c r="P474" s="58" t="s">
+        <v>1698</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1780</v>
+        <v>1746</v>
       </c>
       <c r="V474" s="58" t="s">
-        <v>1713</v>
+        <v>551</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40669,7 +40598,7 @@
         <v>1605571200</v>
       </c>
       <c r="Y474" s="58">
-        <v>1606147199</v>
+        <v>2552233600</v>
       </c>
       <c r="AG474" s="58">
         <v>1</v>
@@ -40685,23 +40614,23 @@
       </c>
     </row>
     <row r="475" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="58">
+      <c r="A475" s="54">
         <v>474</v>
       </c>
-      <c r="B475" s="58">
+      <c r="B475" s="54">
         <v>10391</v>
       </c>
       <c r="F475" s="58">
         <v>1</v>
       </c>
       <c r="G475" s="58" t="s">
-        <v>1701</v>
+        <v>1686</v>
       </c>
       <c r="H475" s="58" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="I475" s="58" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="K475" s="58">
         <v>-31</v>
@@ -40712,20 +40641,20 @@
       <c r="M475" s="58">
         <v>0</v>
       </c>
-      <c r="N475" s="54" t="s">
+      <c r="N475" s="58" t="s">
         <v>111</v>
       </c>
       <c r="O475" s="58">
-        <v>19800</v>
-      </c>
-      <c r="P475" s="54" t="s">
-        <v>1712</v>
+        <v>249800</v>
+      </c>
+      <c r="P475" s="58" t="s">
+        <v>1698</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1781</v>
+        <v>1747</v>
       </c>
       <c r="V475" s="58" t="s">
-        <v>1713</v>
+        <v>551</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -40734,7 +40663,7 @@
         <v>1605571200</v>
       </c>
       <c r="Y475" s="58">
-        <v>1606147199</v>
+        <v>2552233600</v>
       </c>
       <c r="AG475" s="58">
         <v>1</v>
@@ -40749,590 +40678,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="58">
-        <v>475</v>
-      </c>
-      <c r="B476" s="58">
-        <v>10392</v>
-      </c>
-      <c r="F476" s="58">
-        <v>1</v>
-      </c>
-      <c r="G476" s="58" t="s">
-        <v>1703</v>
-      </c>
-      <c r="H476" s="58" t="s">
-        <v>1693</v>
-      </c>
-      <c r="I476" s="58" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K476" s="58">
-        <v>-31</v>
-      </c>
-      <c r="L476" s="58">
-        <v>0</v>
-      </c>
-      <c r="M476" s="58">
-        <v>0</v>
-      </c>
-      <c r="N476" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="O476" s="58">
-        <v>49800</v>
-      </c>
-      <c r="P476" s="54" t="s">
-        <v>1711</v>
-      </c>
-      <c r="Q476" s="59" t="s">
-        <v>1782</v>
-      </c>
-      <c r="V476" s="58" t="s">
-        <v>1713</v>
-      </c>
-      <c r="W476" s="58">
-        <v>9999999</v>
-      </c>
-      <c r="X476" s="58">
-        <v>1605571200</v>
-      </c>
-      <c r="Y476" s="58">
-        <v>1606147199</v>
-      </c>
-      <c r="AG476" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH476" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK476" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL476" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="64">
-        <v>476</v>
-      </c>
-      <c r="B477" s="64">
-        <v>10393</v>
-      </c>
-      <c r="F477" s="64">
-        <v>1</v>
-      </c>
-      <c r="G477" s="64" t="s">
-        <v>1714</v>
-      </c>
-      <c r="H477" s="64" t="s">
-        <v>1722</v>
-      </c>
-      <c r="I477" s="64" t="s">
-        <v>1724</v>
-      </c>
-      <c r="K477" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L477" s="64">
-        <v>0</v>
-      </c>
-      <c r="M477" s="64">
-        <v>0</v>
-      </c>
-      <c r="N477" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O477" s="64">
-        <v>600</v>
-      </c>
-      <c r="P477" s="64" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q477" s="65" t="s">
-        <v>1783</v>
-      </c>
-      <c r="V477" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="W477" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X477" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y477" s="64">
-        <v>2552233600</v>
-      </c>
-      <c r="AG477" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH477" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK477" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL477" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="64">
-        <v>477</v>
-      </c>
-      <c r="B478" s="64">
-        <v>10394</v>
-      </c>
-      <c r="F478" s="64">
-        <v>1</v>
-      </c>
-      <c r="G478" s="64" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H478" s="64" t="s">
-        <v>1722</v>
-      </c>
-      <c r="I478" s="64" t="s">
-        <v>1725</v>
-      </c>
-      <c r="K478" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L478" s="64">
-        <v>0</v>
-      </c>
-      <c r="M478" s="64">
-        <v>0</v>
-      </c>
-      <c r="N478" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O478" s="64">
-        <v>3000</v>
-      </c>
-      <c r="P478" s="64" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q478" s="65" t="s">
-        <v>1784</v>
-      </c>
-      <c r="V478" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="W478" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X478" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y478" s="64">
-        <v>2552233600</v>
-      </c>
-      <c r="AG478" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH478" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK478" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL478" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="64">
-        <v>478</v>
-      </c>
-      <c r="B479" s="64">
-        <v>10395</v>
-      </c>
-      <c r="F479" s="64">
-        <v>1</v>
-      </c>
-      <c r="G479" s="64" t="s">
-        <v>1716</v>
-      </c>
-      <c r="H479" s="64" t="s">
-        <v>1722</v>
-      </c>
-      <c r="I479" s="64" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K479" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L479" s="64">
-        <v>0</v>
-      </c>
-      <c r="M479" s="64">
-        <v>0</v>
-      </c>
-      <c r="N479" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O479" s="64">
-        <v>6800</v>
-      </c>
-      <c r="P479" s="64" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q479" s="65" t="s">
-        <v>861</v>
-      </c>
-      <c r="V479" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="W479" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X479" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y479" s="64">
-        <v>2552233600</v>
-      </c>
-      <c r="AG479" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH479" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK479" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL479" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="64">
-        <v>479</v>
-      </c>
-      <c r="B480" s="64">
-        <v>10396</v>
-      </c>
-      <c r="F480" s="64">
-        <v>1</v>
-      </c>
-      <c r="G480" s="64" t="s">
-        <v>1717</v>
-      </c>
-      <c r="H480" s="64" t="s">
-        <v>1722</v>
-      </c>
-      <c r="I480" s="64" t="s">
-        <v>1727</v>
-      </c>
-      <c r="K480" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L480" s="64">
-        <v>0</v>
-      </c>
-      <c r="M480" s="64">
-        <v>0</v>
-      </c>
-      <c r="N480" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O480" s="64">
-        <v>9800</v>
-      </c>
-      <c r="P480" s="64" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q480" s="65" t="s">
-        <v>1785</v>
-      </c>
-      <c r="V480" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="W480" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X480" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y480" s="64">
-        <v>2552233600</v>
-      </c>
-      <c r="AG480" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH480" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK480" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL480" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="64">
-        <v>480</v>
-      </c>
-      <c r="B481" s="64">
-        <v>10397</v>
-      </c>
-      <c r="F481" s="64">
-        <v>1</v>
-      </c>
-      <c r="G481" s="64" t="s">
-        <v>1718</v>
-      </c>
-      <c r="H481" s="64" t="s">
-        <v>1722</v>
-      </c>
-      <c r="I481" s="64" t="s">
-        <v>1728</v>
-      </c>
-      <c r="K481" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L481" s="64">
-        <v>0</v>
-      </c>
-      <c r="M481" s="64">
-        <v>0</v>
-      </c>
-      <c r="N481" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O481" s="64">
-        <v>19800</v>
-      </c>
-      <c r="P481" s="64" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q481" s="65" t="s">
-        <v>862</v>
-      </c>
-      <c r="V481" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="W481" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X481" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y481" s="64">
-        <v>2552233600</v>
-      </c>
-      <c r="AG481" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH481" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK481" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL481" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="64">
-        <v>481</v>
-      </c>
-      <c r="B482" s="64">
-        <v>10398</v>
-      </c>
-      <c r="F482" s="64">
-        <v>1</v>
-      </c>
-      <c r="G482" s="64" t="s">
-        <v>1719</v>
-      </c>
-      <c r="H482" s="64" t="s">
-        <v>1722</v>
-      </c>
-      <c r="I482" s="64" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K482" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L482" s="64">
-        <v>0</v>
-      </c>
-      <c r="M482" s="64">
-        <v>0</v>
-      </c>
-      <c r="N482" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="O482" s="64">
-        <v>49800</v>
-      </c>
-      <c r="P482" s="64" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q482" s="65" t="s">
-        <v>1786</v>
-      </c>
-      <c r="V482" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="W482" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X482" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y482" s="64">
-        <v>2552233600</v>
-      </c>
-      <c r="AG482" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH482" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK482" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL482" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="62">
-        <v>482</v>
-      </c>
-      <c r="B483" s="62">
-        <v>10399</v>
-      </c>
-      <c r="F483" s="62">
-        <v>1</v>
-      </c>
-      <c r="G483" s="62" t="s">
-        <v>1720</v>
-      </c>
-      <c r="H483" s="62" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I483" s="62" t="s">
-        <v>1730</v>
-      </c>
-      <c r="K483" s="62">
-        <v>-31</v>
-      </c>
-      <c r="L483" s="62">
-        <v>0</v>
-      </c>
-      <c r="M483" s="62">
-        <v>0</v>
-      </c>
-      <c r="N483" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="O483" s="62">
-        <v>99800</v>
-      </c>
-      <c r="P483" s="62" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q483" s="63" t="s">
-        <v>1787</v>
-      </c>
-      <c r="V483" s="62" t="s">
-        <v>551</v>
-      </c>
-      <c r="W483" s="62">
-        <v>9999999</v>
-      </c>
-      <c r="X483" s="62">
-        <v>1605571200</v>
-      </c>
-      <c r="Y483" s="62">
-        <v>2552233600</v>
-      </c>
-      <c r="AG483" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH483" s="62">
-        <v>1</v>
-      </c>
-      <c r="AK483" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL483" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="62">
-        <v>483</v>
-      </c>
-      <c r="B484" s="62">
-        <v>10400</v>
-      </c>
-      <c r="F484" s="62">
-        <v>1</v>
-      </c>
-      <c r="G484" s="62" t="s">
-        <v>1721</v>
-      </c>
-      <c r="H484" s="62" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I484" s="62" t="s">
-        <v>1731</v>
-      </c>
-      <c r="K484" s="62">
-        <v>-31</v>
-      </c>
-      <c r="L484" s="62">
-        <v>0</v>
-      </c>
-      <c r="M484" s="62">
-        <v>0</v>
-      </c>
-      <c r="N484" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="O484" s="62">
-        <v>249800</v>
-      </c>
-      <c r="P484" s="62" t="s">
-        <v>1733</v>
-      </c>
-      <c r="Q484" s="63" t="s">
-        <v>1788</v>
-      </c>
-      <c r="V484" s="62" t="s">
-        <v>551</v>
-      </c>
-      <c r="W484" s="62">
-        <v>9999999</v>
-      </c>
-      <c r="X484" s="62">
-        <v>1605571200</v>
-      </c>
-      <c r="Y484" s="62">
-        <v>2552233600</v>
-      </c>
-      <c r="AG484" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH484" s="62">
-        <v>1</v>
-      </c>
-      <c r="AK484" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL484" s="62">
-        <v>1</v>
-      </c>
+    <row r="476" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q476" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -41344,10 +40691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41762,7 +41109,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41996,7 +41343,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1423</v>
+        <v>1748</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -42010,7 +41357,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1424</v>
+        <v>1749</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -42024,7 +41371,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1425</v>
+        <v>1750</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -42038,7 +41385,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -42052,7 +41399,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -42066,7 +41413,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -42080,7 +41427,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -42094,7 +41441,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -42108,7 +41455,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1682</v>
+        <v>1751</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -42122,13 +41469,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1683</v>
+        <v>1759</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
       </c>
       <c r="D54" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -42136,7 +41483,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1684</v>
+        <v>1752</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -42150,13 +41497,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1685</v>
+        <v>1758</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
       </c>
       <c r="D56" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -42164,7 +41511,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1686</v>
+        <v>1753</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -42178,13 +41525,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1687</v>
+        <v>1764</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
       </c>
       <c r="D58" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -42192,13 +41539,111 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1688</v>
+        <v>1754</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
       </c>
       <c r="D59" s="56">
         <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="56">
+        <v>59</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C60" s="56">
+        <v>1</v>
+      </c>
+      <c r="D60" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="56">
+        <v>60</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C61" s="56">
+        <v>1</v>
+      </c>
+      <c r="D61" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="56">
+        <v>61</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C62" s="56">
+        <v>1</v>
+      </c>
+      <c r="D62" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="56">
+        <v>62</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C63" s="56">
+        <v>1</v>
+      </c>
+      <c r="D63" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="56">
+        <v>63</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C64" s="56">
+        <v>1</v>
+      </c>
+      <c r="D64" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="56">
+        <v>64</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C65" s="56">
+        <v>1</v>
+      </c>
+      <c r="D65" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="56">
+        <v>65</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C66" s="56">
+        <v>1</v>
+      </c>
+      <c r="D66" s="56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -7564,34 +7564,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{next=10365,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10368,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10371,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10374,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10377,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10380,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10383,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{last=10366,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7617,6 +7589,34 @@
   </si>
   <si>
     <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10455,10 +10455,10 @@
   <dimension ref="A1:AM476"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V443" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z467" sqref="Z467"/>
+      <selection pane="bottomRight" activeCell="A447" sqref="A447:XFD447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -40693,8 +40693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41455,13 +41455,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1751</v>
+        <v>1758</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
       </c>
       <c r="D53" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -41469,13 +41469,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
       </c>
       <c r="D54" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -41483,13 +41483,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
       </c>
       <c r="D55" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -41497,13 +41497,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
       </c>
       <c r="D56" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -41511,13 +41511,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
       </c>
       <c r="D57" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -41525,13 +41525,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
       </c>
       <c r="D58" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -41539,13 +41539,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
       </c>
       <c r="D59" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -41553,13 +41553,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
       </c>
       <c r="D60" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -41567,13 +41567,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
       </c>
       <c r="D61" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -41581,13 +41581,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
       </c>
       <c r="D62" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -41595,13 +41595,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
       </c>
       <c r="D63" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -41609,13 +41609,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
       </c>
       <c r="D64" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -41623,13 +41623,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
       </c>
       <c r="D65" s="56">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -41637,13 +41637,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>
       </c>
       <c r="D66" s="56">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1767">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7617,6 +7617,13 @@
   </si>
   <si>
     <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>5,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10454,11 +10461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM476"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V443" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="T449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A447" sqref="A447:XFD447"/>
+      <selection pane="bottomRight" activeCell="V469" sqref="V469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -40199,7 +40206,7 @@
         <v>1742</v>
       </c>
       <c r="V468" s="60" t="s">
-        <v>551</v>
+        <v>1766</v>
       </c>
       <c r="W468" s="60">
         <v>9999999</v>
@@ -40264,7 +40271,7 @@
         <v>1743</v>
       </c>
       <c r="V469" s="60" t="s">
-        <v>551</v>
+        <v>1766</v>
       </c>
       <c r="W469" s="60">
         <v>9999999</v>
@@ -40329,7 +40336,7 @@
         <v>861</v>
       </c>
       <c r="V470" s="60" t="s">
-        <v>551</v>
+        <v>1766</v>
       </c>
       <c r="W470" s="60">
         <v>9999999</v>
@@ -40394,7 +40401,7 @@
         <v>1744</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>551</v>
+        <v>1765</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40459,7 +40466,7 @@
         <v>862</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>551</v>
+        <v>1765</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40524,7 +40531,7 @@
         <v>1745</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>551</v>
+        <v>1765</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40588,8 +40595,8 @@
       <c r="Q474" s="59" t="s">
         <v>1746</v>
       </c>
-      <c r="V474" s="58" t="s">
-        <v>551</v>
+      <c r="V474" s="60" t="s">
+        <v>1765</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40653,8 +40660,8 @@
       <c r="Q475" s="59" t="s">
         <v>1747</v>
       </c>
-      <c r="V475" s="58" t="s">
-        <v>551</v>
+      <c r="V475" s="60" t="s">
+        <v>1765</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -40693,8 +40700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1763">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7488,6 +7488,125 @@
   </si>
   <si>
     <t>{next=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋18元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋30元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐砸金蛋498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+  </si>
+  <si>
+    <t>300000,1</t>
+  </si>
+  <si>
+    <t>180000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>480000,1</t>
+  </si>
+  <si>
+    <t>980000,1</t>
+  </si>
+  <si>
+    <t>1980000,1</t>
+  </si>
+  <si>
+    <t>4980000,1</t>
+  </si>
+  <si>
+    <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7559,7 +7678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7620,6 +7739,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7663,7 +7794,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7837,6 +7968,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10278,10 +10421,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H452" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I462" sqref="I462"/>
+      <selection pane="bottomRight" activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -39957,6 +40100,591 @@
         <v>1</v>
       </c>
       <c r="AL467" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
+        <v>467</v>
+      </c>
+      <c r="B468" s="58">
+        <v>10384</v>
+      </c>
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H468" s="58" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I468" s="58" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K468" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="58">
+        <v>0</v>
+      </c>
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O468" s="58">
+        <v>1800</v>
+      </c>
+      <c r="P468" s="54" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q468" s="59" t="s">
+        <v>1757</v>
+      </c>
+      <c r="V468" s="58" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W468" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="58">
+        <v>1606147199</v>
+      </c>
+      <c r="AG468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
+        <v>468</v>
+      </c>
+      <c r="B469" s="58">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H469" s="58" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I469" s="58" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K469" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="58">
+        <v>0</v>
+      </c>
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O469" s="58">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="54" t="s">
+        <v>1751</v>
+      </c>
+      <c r="Q469" s="59" t="s">
+        <v>1756</v>
+      </c>
+      <c r="V469" s="58" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W469" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="58">
+        <v>1606147199</v>
+      </c>
+      <c r="AG469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
+        <v>469</v>
+      </c>
+      <c r="B470" s="58">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H470" s="58" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I470" s="58" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K470" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="58">
+        <v>0</v>
+      </c>
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O470" s="58">
+        <v>4800</v>
+      </c>
+      <c r="P470" s="54" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q470" s="59" t="s">
+        <v>1758</v>
+      </c>
+      <c r="V470" s="58" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W470" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="58">
+        <v>1606147199</v>
+      </c>
+      <c r="AG470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="60">
+        <v>470</v>
+      </c>
+      <c r="B471" s="60">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="60">
+        <v>1</v>
+      </c>
+      <c r="G471" s="60" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H471" s="60" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I471" s="60" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K471" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="60">
+        <v>0</v>
+      </c>
+      <c r="M471" s="60">
+        <v>0</v>
+      </c>
+      <c r="N471" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O471" s="60">
+        <v>4800</v>
+      </c>
+      <c r="P471" s="60" t="s">
+        <v>1752</v>
+      </c>
+      <c r="Q471" s="61" t="s">
+        <v>1758</v>
+      </c>
+      <c r="V471" s="60" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W471" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X471" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="60">
+        <v>1606147199</v>
+      </c>
+      <c r="AG471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="60">
+        <v>471</v>
+      </c>
+      <c r="B472" s="60">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="60">
+        <v>1</v>
+      </c>
+      <c r="G472" s="60" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H472" s="60" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I472" s="60" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K472" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L472" s="60">
+        <v>0</v>
+      </c>
+      <c r="M472" s="60">
+        <v>0</v>
+      </c>
+      <c r="N472" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O472" s="60">
+        <v>9800</v>
+      </c>
+      <c r="P472" s="60" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q472" s="61" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V472" s="60" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W472" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X472" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="60">
+        <v>1606147199</v>
+      </c>
+      <c r="AG472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="60">
+        <v>472</v>
+      </c>
+      <c r="B473" s="60">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="60">
+        <v>1</v>
+      </c>
+      <c r="G473" s="60" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H473" s="60" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I473" s="60" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K473" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L473" s="60">
+        <v>0</v>
+      </c>
+      <c r="M473" s="60">
+        <v>0</v>
+      </c>
+      <c r="N473" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="O473" s="60">
+        <v>19800</v>
+      </c>
+      <c r="P473" s="60" t="s">
+        <v>1752</v>
+      </c>
+      <c r="Q473" s="61" t="s">
+        <v>1760</v>
+      </c>
+      <c r="V473" s="60" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W473" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X473" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="60">
+        <v>1606147199</v>
+      </c>
+      <c r="AG473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="58">
+        <v>473</v>
+      </c>
+      <c r="B474" s="58">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H474" s="58" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I474" s="58" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K474" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L474" s="58">
+        <v>0</v>
+      </c>
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O474" s="58">
+        <v>9800</v>
+      </c>
+      <c r="P474" s="54" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q474" s="59" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V474" s="58" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W474" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X474" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y474" s="58">
+        <v>1606147199</v>
+      </c>
+      <c r="AG474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="58">
+        <v>474</v>
+      </c>
+      <c r="B475" s="58">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H475" s="58" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I475" s="58" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K475" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L475" s="58">
+        <v>0</v>
+      </c>
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O475" s="58">
+        <v>19800</v>
+      </c>
+      <c r="P475" s="54" t="s">
+        <v>1755</v>
+      </c>
+      <c r="Q475" s="59" t="s">
+        <v>1760</v>
+      </c>
+      <c r="V475" s="58" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W475" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X475" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y475" s="58">
+        <v>1606147199</v>
+      </c>
+      <c r="AG475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="58">
+        <v>475</v>
+      </c>
+      <c r="B476" s="58">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="58">
+        <v>1</v>
+      </c>
+      <c r="G476" s="58" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H476" s="58" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I476" s="58" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K476" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="58">
+        <v>0</v>
+      </c>
+      <c r="M476" s="58">
+        <v>0</v>
+      </c>
+      <c r="N476" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O476" s="58">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="54" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q476" s="59" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V476" s="58" t="s">
+        <v>1762</v>
+      </c>
+      <c r="W476" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y476" s="58">
+        <v>1606147199</v>
+      </c>
+      <c r="AG476" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="58">
         <v>1</v>
       </c>
     </row>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -10421,10 +10421,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N452" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A470" sqref="A470"/>
+      <selection pane="bottomRight" activeCell="P476" sqref="P476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1765">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7137,13 +7137,6 @@
   </si>
   <si>
     <t>聚划算98元-2(10min)</t>
-  </si>
-  <si>
-    <t>86400,2,0</t>
-  </si>
-  <si>
-    <t>86400,2,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>聚划算198元-1</t>
@@ -10462,10 +10455,10 @@
   <dimension ref="A1:AM476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S443" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V469" sqref="V469"/>
+      <selection pane="bottomRight" activeCell="W464" sqref="W464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37898,7 +37891,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>1558</v>
@@ -38362,7 +38355,7 @@
         <v>1576</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38769,13 +38762,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38793,13 +38786,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1721</v>
-      </c>
-      <c r="V447" s="54" t="s">
-        <v>1636</v>
+        <v>1719</v>
+      </c>
+      <c r="V447" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="W447" s="54">
         <v>9999999</v>
@@ -38837,13 +38830,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38861,13 +38854,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1722</v>
-      </c>
-      <c r="V448" s="54" t="s">
-        <v>1636</v>
+        <v>1720</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="W448" s="54">
         <v>9999999</v>
@@ -38902,13 +38895,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -38926,13 +38919,13 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1723</v>
-      </c>
-      <c r="V449" s="54" t="s">
-        <v>1635</v>
+        <v>1721</v>
+      </c>
+      <c r="V449" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W449" s="54">
         <v>9999999</v>
@@ -38970,13 +38963,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="66" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="I450" s="66" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="K450" s="66">
         <v>-31</v>
@@ -38994,13 +38987,13 @@
         <v>3800</v>
       </c>
       <c r="P450" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q450" s="67" t="s">
-        <v>1724</v>
-      </c>
-      <c r="V450" s="66" t="s">
-        <v>1635</v>
+        <v>1722</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W450" s="66">
         <v>9999999</v>
@@ -39038,13 +39031,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="66" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I451" s="66" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="K451" s="66">
         <v>-31</v>
@@ -39062,13 +39055,13 @@
         <v>3800</v>
       </c>
       <c r="P451" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q451" s="67" t="s">
-        <v>1725</v>
-      </c>
-      <c r="V451" s="66" t="s">
-        <v>1635</v>
+        <v>1723</v>
+      </c>
+      <c r="V451" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W451" s="66">
         <v>9999999</v>
@@ -39103,13 +39096,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="66" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="I452" s="66" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="K452" s="66">
         <v>-31</v>
@@ -39127,13 +39120,13 @@
         <v>3800</v>
       </c>
       <c r="P452" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q452" s="67" t="s">
-        <v>1726</v>
-      </c>
-      <c r="V452" s="66" t="s">
-        <v>1635</v>
+        <v>1724</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W452" s="66">
         <v>9999999</v>
@@ -39174,10 +39167,10 @@
         <v>1632</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39195,13 +39188,13 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1727</v>
-      </c>
-      <c r="V453" s="54" t="s">
-        <v>1635</v>
+        <v>1725</v>
+      </c>
+      <c r="V453" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W453" s="54">
         <v>9999999</v>
@@ -39242,10 +39235,10 @@
         <v>1633</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39263,13 +39256,13 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1728</v>
-      </c>
-      <c r="V454" s="54" t="s">
-        <v>1635</v>
+        <v>1726</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W454" s="54">
         <v>9999999</v>
@@ -39307,10 +39300,10 @@
         <v>1634</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39328,13 +39321,13 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1729</v>
-      </c>
-      <c r="V455" s="54" t="s">
-        <v>1635</v>
+        <v>1727</v>
+      </c>
+      <c r="V455" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W455" s="54">
         <v>9999999</v>
@@ -39372,13 +39365,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="66" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="I456" s="66" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="K456" s="66">
         <v>-31</v>
@@ -39396,13 +39389,13 @@
         <v>19800</v>
       </c>
       <c r="P456" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q456" s="67" t="s">
-        <v>1730</v>
-      </c>
-      <c r="V456" s="66" t="s">
-        <v>1635</v>
+        <v>1728</v>
+      </c>
+      <c r="V456" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W456" s="66">
         <v>9999999</v>
@@ -39440,13 +39433,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="66" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="I457" s="66" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="K457" s="66">
         <v>-31</v>
@@ -39464,13 +39457,13 @@
         <v>19800</v>
       </c>
       <c r="P457" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q457" s="67" t="s">
-        <v>1731</v>
-      </c>
-      <c r="V457" s="66" t="s">
-        <v>1635</v>
+        <v>1729</v>
+      </c>
+      <c r="V457" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W457" s="66">
         <v>9999999</v>
@@ -39505,13 +39498,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="66" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="I458" s="66" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="K458" s="66">
         <v>-31</v>
@@ -39529,13 +39522,13 @@
         <v>19800</v>
       </c>
       <c r="P458" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q458" s="67" t="s">
-        <v>1732</v>
-      </c>
-      <c r="V458" s="66" t="s">
-        <v>1635</v>
+        <v>1730</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W458" s="66">
         <v>9999999</v>
@@ -39573,13 +39566,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39597,13 +39590,13 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1733</v>
-      </c>
-      <c r="V459" s="54" t="s">
-        <v>1635</v>
+        <v>1731</v>
+      </c>
+      <c r="V459" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W459" s="54">
         <v>9999999</v>
@@ -39641,13 +39634,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39665,13 +39658,13 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1734</v>
-      </c>
-      <c r="V460" s="54" t="s">
-        <v>1635</v>
+        <v>1732</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W460" s="54">
         <v>9999999</v>
@@ -39706,13 +39699,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39730,13 +39723,13 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1735</v>
-      </c>
-      <c r="V461" s="54" t="s">
-        <v>1635</v>
+        <v>1733</v>
+      </c>
+      <c r="V461" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W461" s="54">
         <v>9999999</v>
@@ -39774,13 +39767,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="66" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H462" s="66" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I462" s="66" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="K462" s="66">
         <v>-31</v>
@@ -39798,13 +39791,13 @@
         <v>99800</v>
       </c>
       <c r="P462" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q462" s="67" t="s">
-        <v>1736</v>
-      </c>
-      <c r="V462" s="66" t="s">
-        <v>1635</v>
+        <v>1734</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W462" s="66">
         <v>9999999</v>
@@ -39842,13 +39835,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="66" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="I463" s="66" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="K463" s="66">
         <v>-31</v>
@@ -39866,13 +39859,13 @@
         <v>99800</v>
       </c>
       <c r="P463" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q463" s="67" t="s">
-        <v>1737</v>
-      </c>
-      <c r="V463" s="66" t="s">
-        <v>1635</v>
+        <v>1735</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W463" s="66">
         <v>9999999</v>
@@ -39907,13 +39900,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="66" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="I464" s="66" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="K464" s="66">
         <v>-31</v>
@@ -39931,13 +39924,13 @@
         <v>99800</v>
       </c>
       <c r="P464" s="66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q464" s="67" t="s">
-        <v>1738</v>
-      </c>
-      <c r="V464" s="66" t="s">
-        <v>1635</v>
+        <v>1736</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W464" s="66">
         <v>9999999</v>
@@ -39975,13 +39968,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -39999,13 +39992,13 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1739</v>
-      </c>
-      <c r="V465" s="54" t="s">
-        <v>1635</v>
+        <v>1737</v>
+      </c>
+      <c r="V465" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W465" s="54">
         <v>9999999</v>
@@ -40043,13 +40036,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40067,13 +40060,13 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1740</v>
-      </c>
-      <c r="V466" s="54" t="s">
-        <v>1635</v>
+        <v>1738</v>
+      </c>
+      <c r="V466" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W466" s="54">
         <v>9999999</v>
@@ -40108,13 +40101,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40132,13 +40125,13 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1741</v>
-      </c>
-      <c r="V467" s="54" t="s">
-        <v>1635</v>
+        <v>1739</v>
+      </c>
+      <c r="V467" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="W467" s="54">
         <v>9999999</v>
@@ -40176,13 +40169,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="60" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="H468" s="60" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I468" s="60" t="s">
         <v>1687</v>
-      </c>
-      <c r="I468" s="60" t="s">
-        <v>1689</v>
       </c>
       <c r="K468" s="60">
         <v>-31</v>
@@ -40200,13 +40193,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="60" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q468" s="61" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="V468" s="60" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="W468" s="60">
         <v>9999999</v>
@@ -40241,13 +40234,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="60" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="H469" s="60" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="I469" s="60" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="K469" s="60">
         <v>-31</v>
@@ -40265,13 +40258,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="60" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q469" s="61" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="V469" s="60" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="W469" s="60">
         <v>9999999</v>
@@ -40306,13 +40299,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="60" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="H470" s="60" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="I470" s="60" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="K470" s="60">
         <v>-31</v>
@@ -40330,13 +40323,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="60" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q470" s="61" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="60" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="W470" s="60">
         <v>9999999</v>
@@ -40371,13 +40364,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="60" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="H471" s="60" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="I471" s="60" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="K471" s="60">
         <v>-31</v>
@@ -40395,13 +40388,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="60" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40436,13 +40429,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="60" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="H472" s="60" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="I472" s="60" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="K472" s="60">
         <v>-31</v>
@@ -40460,13 +40453,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="60" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q472" s="61" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40501,13 +40494,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="60" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="H473" s="60" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="I473" s="60" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="K473" s="60">
         <v>-31</v>
@@ -40525,13 +40518,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="60" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40566,13 +40559,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="58" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="H474" s="58" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="I474" s="58" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="K474" s="58">
         <v>-31</v>
@@ -40590,13 +40583,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="58" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="V474" s="60" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40631,13 +40624,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H475" s="58" t="s">
         <v>1686</v>
       </c>
-      <c r="H475" s="58" t="s">
-        <v>1688</v>
-      </c>
       <c r="I475" s="58" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="K475" s="58">
         <v>-31</v>
@@ -40655,13 +40648,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="58" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="V475" s="60" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -41116,7 +41109,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41350,7 +41343,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41364,7 +41357,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41378,7 +41371,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41462,7 +41455,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41476,7 +41469,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41490,7 +41483,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41504,7 +41497,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41518,7 +41511,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41532,7 +41525,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41546,7 +41539,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41560,7 +41553,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41574,7 +41567,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41588,7 +41581,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41602,7 +41595,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41616,7 +41609,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -41630,7 +41623,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -41644,7 +41637,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7545,18 +7545,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "hlqjd_042_v1v3" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_042_v4v7" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_042_v8v10" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{last=10366,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7618,6 +7606,15 @@
   <si>
     <t>5,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_v1v3" }</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_v4v7" }</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_v8v10" }</t>
   </si>
 </sst>
 </file>
@@ -10454,11 +10451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S443" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W464" sqref="W464"/>
+      <selection pane="bottomRight" activeCell="Z386" sqref="Z386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -40199,7 +40196,7 @@
         <v>1740</v>
       </c>
       <c r="V468" s="60" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="W468" s="60">
         <v>9999999</v>
@@ -40264,7 +40261,7 @@
         <v>1741</v>
       </c>
       <c r="V469" s="60" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="W469" s="60">
         <v>9999999</v>
@@ -40329,7 +40326,7 @@
         <v>861</v>
       </c>
       <c r="V470" s="60" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="W470" s="60">
         <v>9999999</v>
@@ -40394,7 +40391,7 @@
         <v>1742</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40459,7 +40456,7 @@
         <v>862</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40524,7 +40521,7 @@
         <v>1743</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40589,7 +40586,7 @@
         <v>1744</v>
       </c>
       <c r="V474" s="60" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40654,7 +40651,7 @@
         <v>1745</v>
       </c>
       <c r="V475" s="60" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -40693,8 +40690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41343,7 +41340,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1746</v>
+        <v>1762</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41357,7 +41354,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1747</v>
+        <v>1763</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41371,7 +41368,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1748</v>
+        <v>1764</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41455,7 +41452,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41469,7 +41466,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41483,7 +41480,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41497,7 +41494,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41511,7 +41508,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41525,7 +41522,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41539,7 +41536,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41553,7 +41550,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41567,7 +41564,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41581,7 +41578,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41595,7 +41592,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41609,7 +41606,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -41623,7 +41620,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -41637,7 +41634,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>

--- a/config_11.17/shoping_config.xlsx
+++ b/config_11.17/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7608,13 +7608,16 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_v1v3" }</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_v4v7" }</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_v8v10" }</t>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7685,7 +7688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7764,6 +7767,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7807,7 +7816,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8011,6 +8020,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10451,11 +10466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM476"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V374" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V364" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z386" sqref="Z386"/>
+      <selection pane="bottomRight" activeCell="X386" sqref="X386:Y394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -40690,8 +40705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41336,10 +41351,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="68">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="69" t="s">
         <v>1762</v>
       </c>
       <c r="C45" s="12">
@@ -41350,10 +41365,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="68">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="69" t="s">
         <v>1763</v>
       </c>
       <c r="C46" s="12">
@@ -41364,10 +41379,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="68">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="69" t="s">
         <v>1764</v>
       </c>
       <c r="C47" s="12">
